--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_24_24.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_24_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>456821.5374206979</v>
+        <v>450610.2227487193</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>26306649.68548651</v>
+        <v>26296335.60329301</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10648519.04676124</v>
+        <v>10594241.27766415</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5064091.027794153</v>
+        <v>5086609.97143328</v>
       </c>
     </row>
     <row r="11">
@@ -658,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.11896786784456</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>6.023344779862555</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4192906078700389</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>8.837188616231382</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>8.837188616231382</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.059381093830826</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -758,13 +758,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>8.837188616231382</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.209056186484717</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>5.574739546691887</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -794,10 +794,10 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>8.837188616231382</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>8.837188616231382</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>16.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>5.540783129432987</v>
+        <v>4.013918012329795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>1.526865117103195</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -974,31 +974,31 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
         <v>16.12455910236937</v>
       </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="K6" t="n">
         <v>1.646802753613244</v>
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>16.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1037,7 +1037,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>16.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1138,16 +1138,16 @@
         <v>6.023344779862555</v>
       </c>
       <c r="D8" t="n">
-        <v>1.243111290088059</v>
+        <v>0.4192906078700389</v>
       </c>
       <c r="E8" t="n">
-        <v>37.52930446208636</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="F8" t="n">
-        <v>37.52930446208636</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>37.52930446208636</v>
+        <v>3.940264144169934</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>10.09069110280006</v>
+        <v>13.84940403122595</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1177,10 +1177,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.579696329610442</v>
+        <v>14.36207852374645</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>2.991775387235784</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>29.75308270337462</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>29.75308270337462</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>3.781435841159877</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>27.3978788172526</v>
       </c>
       <c r="J9" t="n">
-        <v>13.70815661144294</v>
+        <v>15.94682028185201</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1256,19 +1256,19 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>5.808809210202206</v>
+        <v>8.833463008242489</v>
       </c>
       <c r="R9" t="n">
-        <v>34.25063875717579</v>
+        <v>29.75308270337462</v>
       </c>
       <c r="S9" t="n">
-        <v>37.52930446208636</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>37.52930446208636</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>16.81751125347107</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1381,16 +1381,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>251.261658132235</v>
+        <v>261.6406338149549</v>
       </c>
       <c r="G11" t="n">
-        <v>251.261658132235</v>
+        <v>261.6406338149549</v>
       </c>
       <c r="H11" t="n">
-        <v>251.261658132235</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>27.89195914555226</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>99.10854066951721</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>138.6175180743431</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>254.3676453353068</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>193.4193093373202</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1448,10 +1448,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>115.7281862028015</v>
@@ -1460,10 +1460,10 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F12" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>27.36159492273607</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1499,10 +1499,10 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>5.974765097318171</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>154.5265257989293</v>
+        <v>154.4530964828858</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -1511,10 +1511,10 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1545,10 +1545,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>134.4613280898985</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>95.02953980029801</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1587,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>242.0188405386099</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1612,10 +1612,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>251.261658132235</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>221.3112684828725</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>99.10854066951723</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>138.6175180743433</v>
       </c>
       <c r="U14" t="n">
-        <v>251.261658132235</v>
+        <v>254.3676453353068</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>261.640633814955</v>
       </c>
       <c r="W14" t="n">
-        <v>251.261658132235</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>261.640633814955</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1694,10 +1694,10 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>13.58420012089512</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1736,25 +1736,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>92.06263584007191</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>154.5265257989293</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>195.3247142976259</v>
+        <v>195.3235157777776</v>
       </c>
       <c r="V15" t="n">
         <v>211.5744117368965</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>9.93283794134439</v>
       </c>
     </row>
     <row r="16">
@@ -1776,16 +1776,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>134.4613280898985</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>95.02953980029801</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>79.03402590809524</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1843,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>251.261658132235</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>251.261658132235</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>251.261658132235</v>
+        <v>261.6406338149552</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1861,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>261.6406338149552</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1900,13 +1900,13 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>230.4530702642125</v>
       </c>
       <c r="V17" t="n">
-        <v>221.3112684828725</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>261.6406338149552</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1928,16 +1928,16 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>105.102649532939</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1973,16 +1973,16 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>2.416280399252979</v>
+        <v>67.36885496567695</v>
       </c>
       <c r="T18" t="n">
-        <v>154.5265257989293</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>195.3247142976259</v>
+        <v>195.3235157777776</v>
       </c>
       <c r="V18" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>211.1008365810345</v>
@@ -2058,13 +2058,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>229.4908678901965</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>242.0188405386102</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2080,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>261.6406338149553</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>261.6406338149553</v>
       </c>
       <c r="D20" t="n">
-        <v>251.261658132235</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>261.6406338149553</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2131,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>17.1575524609665</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>213.2955178032461</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>251.261658132235</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>251.261658132235</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>221.3112684828725</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2159,7 +2159,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2174,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>105.102649532939</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2216,19 +2216,19 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>177.7047984533121</v>
+        <v>189.1093204606755</v>
       </c>
       <c r="V21" t="n">
         <v>211.5744117368965</v>
       </c>
       <c r="W21" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="22">
@@ -2253,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>164.9077435663704</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>64.583124323826</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>242.0188405386103</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2317,16 +2317,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>234.0864257484643</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -2335,7 +2335,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>70.5838756970376</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2374,19 +2374,19 @@
         <v>210.2775313912475</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>254.3124908149276</v>
       </c>
       <c r="V23" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2399,13 +2399,13 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C24" t="n">
-        <v>51.01567111483828</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D24" t="n">
         <v>115.7281862028015</v>
       </c>
       <c r="E24" t="n">
-        <v>119.2878878475953</v>
+        <v>42.49012069565098</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2450,7 +2450,7 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>152.9662577680471</v>
       </c>
       <c r="U24" t="n">
         <v>195.2992474636072</v>
@@ -2465,7 +2465,7 @@
         <v>174.5627220424961</v>
       </c>
       <c r="Y24" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2538,13 +2538,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>255.7849588823068</v>
       </c>
       <c r="X25" t="n">
-        <v>33.29661725718388</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2557,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>17.45987091386793</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2569,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>402.4235511641288</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2611,7 +2611,7 @@
         <v>210.2775313912475</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>254.3124908149276</v>
       </c>
       <c r="V26" t="n">
         <v>346.3391791168841</v>
@@ -2620,10 +2620,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
-        <v>396.636963852737</v>
+        <v>154.2880991089398</v>
       </c>
       <c r="Y26" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2639,10 +2639,10 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D27" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>119.2878878475953</v>
+        <v>45.50634360737084</v>
       </c>
       <c r="F27" t="n">
         <v>107.8702810193205</v>
@@ -2651,7 +2651,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>58.58122432777904</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2687,16 +2687,16 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>152.9662577680471</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>195.2992474636072</v>
       </c>
       <c r="V27" t="n">
         <v>211.5744117368965</v>
       </c>
       <c r="W27" t="n">
-        <v>5.342871505789708</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X27" t="n">
         <v>174.5627220424961</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>22.88166847950853</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>232.9032904027983</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>279.9159111551209</v>
@@ -2775,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>255.7849588823068</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,22 +2791,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>406.1189678678446</v>
+        <v>340.1239216711608</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>387.5482491943555</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>83.39812025525838</v>
       </c>
       <c r="T29" t="n">
         <v>210.2775313912475</v>
@@ -2854,7 +2854,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2870,7 +2870,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C30" t="n">
         <v>132.6551205385437</v>
@@ -2879,13 +2879,13 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E30" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>107.8702810193205</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>104.7337711575492</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2921,25 +2921,25 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>84.8724997021109</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>152.9662577680471</v>
       </c>
       <c r="U30" t="n">
-        <v>144.6895193298119</v>
+        <v>195.2992474636072</v>
       </c>
       <c r="V30" t="n">
         <v>211.5744117368965</v>
       </c>
       <c r="W30" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>174.5627220424961</v>
+        <v>130.6771274402011</v>
       </c>
       <c r="Y30" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>232.9032904027983</v>
       </c>
       <c r="U31" t="n">
         <v>279.9159111551209</v>
@@ -3012,13 +3012,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>22.88166847950853</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>19.82453536339338</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3031,22 +3031,22 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>65.43959148208531</v>
       </c>
       <c r="G32" t="n">
-        <v>234.0864257484639</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>285.0899515417858</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,22 +3079,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>83.39812025525838</v>
       </c>
       <c r="T32" t="n">
         <v>210.2775313912475</v>
       </c>
       <c r="U32" t="n">
-        <v>254.3124908149276</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3107,7 +3107,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C33" t="n">
         <v>132.6551205385437</v>
@@ -3122,10 +3122,10 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>104.7337711575492</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>58.58122432777904</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3164,7 +3164,7 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>144.6895193298119</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>211.5744117368965</v>
@@ -3176,7 +3176,7 @@
         <v>174.5627220424961</v>
       </c>
       <c r="Y33" t="n">
-        <v>157.8079400398083</v>
+        <v>0.2824615750613282</v>
       </c>
     </row>
     <row r="34">
@@ -3192,16 +3192,16 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5832153864156</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>39.69593104582557</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3243,13 +3243,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>14.22031839450374</v>
+        <v>279.9159111551209</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>255.7849588823068</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3268,22 +3268,22 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
-        <v>109.486559215825</v>
+        <v>19.15580048529294</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>285.0899515417858</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3322,19 +3322,19 @@
         <v>210.2775313912475</v>
       </c>
       <c r="U35" t="n">
-        <v>254.3124908149276</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3350,16 +3350,16 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D36" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>0.410366858644208</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3398,10 +3398,10 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>152.9662577680471</v>
       </c>
       <c r="U36" t="n">
-        <v>5.789517020581219</v>
+        <v>195.2992474636072</v>
       </c>
       <c r="V36" t="n">
         <v>211.5744117368965</v>
@@ -3426,16 +3426,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>15.81871915040476</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3471,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>39.69593104582557</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>106.6542841972354</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3505,22 +3505,22 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>284.9392525487125</v>
+        <v>108.4043155504827</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>83.39812025525838</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3562,16 +3562,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3581,7 +3581,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -3590,16 +3590,16 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>107.8702810193205</v>
+        <v>28.33171623963874</v>
       </c>
       <c r="G39" t="n">
         <v>104.7337711575492</v>
       </c>
       <c r="H39" t="n">
-        <v>58.58122432777904</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>39.3002653939832</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>152.9662577680471</v>
@@ -3650,7 +3650,7 @@
         <v>174.5627220424961</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="40">
@@ -3666,10 +3666,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>92.80014425179219</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>162.9848146305146</v>
@@ -3717,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9159111551209</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>214.816357176594</v>
       </c>
     </row>
     <row r="41">
@@ -3748,16 +3748,16 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>285.0899515417858</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.39812025525838</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>210.2775313912475</v>
+        <v>148.4772424519389</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>254.3124908149276</v>
       </c>
       <c r="V41" t="n">
         <v>346.3391791168841</v>
@@ -3805,10 +3805,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>4.190363906986478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3827,10 +3827,10 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E42" t="n">
-        <v>37.64843842388981</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3869,13 +3869,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>5.789517020581219</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>195.2992474636072</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>211.5744117368965</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>80.30923800950652</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>232.9032904027983</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>191.9784624770048</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -3976,19 +3976,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
-        <v>152.2049426462834</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>416.8201079258493</v>
+        <v>320.550946257076</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>83.39812025525838</v>
       </c>
       <c r="T44" t="n">
         <v>210.2775313912475</v>
       </c>
       <c r="U44" t="n">
-        <v>254.3124908149276</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4055,22 +4055,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>67.80510215671254</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E45" t="n">
         <v>119.2878878475953</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>104.7337711575492</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4109,7 +4109,7 @@
         <v>84.8724997021109</v>
       </c>
       <c r="T45" t="n">
-        <v>152.9662577680471</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>195.2992474636072</v>
@@ -4118,10 +4118,10 @@
         <v>211.5744117368965</v>
       </c>
       <c r="W45" t="n">
-        <v>211.1008365810345</v>
+        <v>145.4475596300752</v>
       </c>
       <c r="X45" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>157.8079400398083</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5832153864156</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>39.69593104582557</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>167.1934341018228</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>55.1427557589722</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>97.36054832573168</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>29.16797884084011</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>23.0837921945143</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>22.66026632797891</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>13.73381318027044</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>4.80736003256197</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7069750892985106</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7069750892985106</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7069750892985106</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>9.455791819367578</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>10.05054089072456</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>10.05054089072456</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>18.79935762079363</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>27.54817435086269</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>32.30678772310242</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>32.30678772310242</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>32.30678772310242</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>32.30678772310242</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>32.30678772310242</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>32.30678772310242</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>32.30678772310242</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>32.30678772310242</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>32.30678772310242</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>32.30678772310242</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>35.34875446492553</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.4958481695086</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>17.4958481695086</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>17.4958481695086</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>17.4958481695086</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>17.4958481695086</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>17.4958481695086</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>17.4958481695086</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>8.569395021800132</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>6.338025136462034</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.7069750892985106</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>9.455791819367578</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>18.20460854943665</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>26.95342527950572</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>35.34875446492553</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>35.34875446492553</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>35.34875446492553</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>35.34875446492553</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>35.34875446492553</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>35.34875446492553</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>26.42230131721706</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>17.4958481695086</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>17.4958481695086</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>17.4958481695086</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>17.4958481695086</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7069750892985106</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7069750892985106</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7069750892985106</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7069750892985106</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7069750892985106</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.7069750892985106</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.7069750892985106</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7069750892985106</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.7069750892985106</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.7069750892985106</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0.7069750892985106</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0.7069750892985106</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0.7069750892985106</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0.7069750892985106</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0.7069750892985106</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.7069750892985106</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0.7069750892985106</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0.7069750892985106</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0.7069750892985106</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0.7069750892985106</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0.7069750892985106</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0.7069750892985106</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0.7069750892985106</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.7069750892985106</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>40.73989123132767</v>
+        <v>39.19760323425373</v>
       </c>
       <c r="C5" t="n">
-        <v>34.65570458500186</v>
+        <v>33.11341658792792</v>
       </c>
       <c r="D5" t="n">
-        <v>34.23217871846646</v>
+        <v>32.68989072139253</v>
       </c>
       <c r="E5" t="n">
-        <v>23.93236727576723</v>
+        <v>22.3900792786933</v>
       </c>
       <c r="F5" t="n">
-        <v>6.942359269858841</v>
+        <v>5.40007127278491</v>
       </c>
       <c r="G5" t="n">
         <v>1.345608634067944</v>
@@ -4591,28 +4591,28 @@
         <v>46.92066685541308</v>
       </c>
       <c r="R5" t="n">
-        <v>46.92066685541308</v>
+        <v>45.37837885833915</v>
       </c>
       <c r="S5" t="n">
-        <v>46.92066685541308</v>
+        <v>45.37837885833915</v>
       </c>
       <c r="T5" t="n">
-        <v>46.92066685541308</v>
+        <v>45.37837885833915</v>
       </c>
       <c r="U5" t="n">
-        <v>46.92066685541308</v>
+        <v>45.37837885833915</v>
       </c>
       <c r="V5" t="n">
-        <v>46.92066685541308</v>
+        <v>45.37837885833915</v>
       </c>
       <c r="W5" t="n">
-        <v>46.92066685541308</v>
+        <v>45.37837885833915</v>
       </c>
       <c r="X5" t="n">
-        <v>46.92066685541308</v>
+        <v>45.37837885833915</v>
       </c>
       <c r="Y5" t="n">
-        <v>46.92066685541308</v>
+        <v>45.37837885833915</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.009045758929807</v>
+        <v>53.27649520748332</v>
       </c>
       <c r="C6" t="n">
-        <v>3.009045758929807</v>
+        <v>53.27649520748332</v>
       </c>
       <c r="D6" t="n">
-        <v>3.009045758929807</v>
+        <v>53.27649520748332</v>
       </c>
       <c r="E6" t="n">
-        <v>3.009045758929807</v>
+        <v>53.27649520748332</v>
       </c>
       <c r="F6" t="n">
-        <v>3.009045758929807</v>
+        <v>53.27649520748332</v>
       </c>
       <c r="G6" t="n">
-        <v>3.009045758929807</v>
+        <v>53.27649520748332</v>
       </c>
       <c r="H6" t="n">
-        <v>3.009045758929807</v>
+        <v>36.98906177074658</v>
       </c>
       <c r="I6" t="n">
-        <v>3.009045758929807</v>
+        <v>19.99905376483819</v>
       </c>
       <c r="J6" t="n">
         <v>3.009045758929807</v>
@@ -4652,10 +4652,10 @@
         <v>1.345608634067944</v>
       </c>
       <c r="L6" t="n">
-        <v>17.91405156689313</v>
+        <v>7.613007978014039</v>
       </c>
       <c r="M6" t="n">
-        <v>34.56595841348394</v>
+        <v>24.26491482460484</v>
       </c>
       <c r="N6" t="n">
         <v>40.91682167119565</v>
@@ -4673,25 +4673,25 @@
         <v>53.27649520748332</v>
       </c>
       <c r="S6" t="n">
-        <v>36.28648720157494</v>
+        <v>53.27649520748332</v>
       </c>
       <c r="T6" t="n">
-        <v>36.28648720157494</v>
+        <v>53.27649520748332</v>
       </c>
       <c r="U6" t="n">
-        <v>36.28648720157494</v>
+        <v>53.27649520748332</v>
       </c>
       <c r="V6" t="n">
-        <v>36.28648720157494</v>
+        <v>53.27649520748332</v>
       </c>
       <c r="W6" t="n">
-        <v>19.29647919566655</v>
+        <v>53.27649520748332</v>
       </c>
       <c r="X6" t="n">
-        <v>19.29647919566655</v>
+        <v>53.27649520748332</v>
       </c>
       <c r="Y6" t="n">
-        <v>19.29647919566655</v>
+        <v>53.27649520748332</v>
       </c>
     </row>
     <row r="7">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>134.2599812852596</v>
+        <v>54.14714037106798</v>
       </c>
       <c r="C8" t="n">
-        <v>128.1757946389338</v>
+        <v>48.06295372474217</v>
       </c>
       <c r="D8" t="n">
-        <v>126.9201266691479</v>
+        <v>47.63942785820677</v>
       </c>
       <c r="E8" t="n">
-        <v>89.01173832360608</v>
+        <v>37.33961641550754</v>
       </c>
       <c r="F8" t="n">
-        <v>51.1033499780643</v>
+        <v>20.34960840959915</v>
       </c>
       <c r="G8" t="n">
-        <v>13.19496163252252</v>
+        <v>16.36954361750831</v>
       </c>
       <c r="H8" t="n">
-        <v>13.19496163252252</v>
+        <v>16.36954361750831</v>
       </c>
       <c r="I8" t="n">
-        <v>13.19496163252252</v>
+        <v>16.36954361750831</v>
       </c>
       <c r="J8" t="n">
-        <v>3.002344356966909</v>
+        <v>2.380246616269969</v>
       </c>
       <c r="K8" t="n">
-        <v>8.579347327526897</v>
+        <v>2.380246616269969</v>
       </c>
       <c r="L8" t="n">
-        <v>30.4433262173085</v>
+        <v>17.32546016873536</v>
       </c>
       <c r="M8" t="n">
-        <v>67.59733763477398</v>
+        <v>46.78101204507624</v>
       </c>
       <c r="N8" t="n">
-        <v>104.7513490522395</v>
+        <v>76.23656392141712</v>
       </c>
       <c r="O8" t="n">
-        <v>136.7661938505102</v>
+        <v>100.8643445863118</v>
       </c>
       <c r="P8" t="n">
-        <v>150.1172178483454</v>
+        <v>107.9106802520795</v>
       </c>
       <c r="Q8" t="n">
-        <v>140.440756909345</v>
+        <v>93.40353022809319</v>
       </c>
       <c r="R8" t="n">
-        <v>140.440756909345</v>
+        <v>90.38153488745098</v>
       </c>
       <c r="S8" t="n">
-        <v>140.440756909345</v>
+        <v>90.38153488745098</v>
       </c>
       <c r="T8" t="n">
-        <v>140.440756909345</v>
+        <v>90.38153488745098</v>
       </c>
       <c r="U8" t="n">
-        <v>140.440756909345</v>
+        <v>90.38153488745098</v>
       </c>
       <c r="V8" t="n">
-        <v>140.440756909345</v>
+        <v>60.32791599515339</v>
       </c>
       <c r="W8" t="n">
-        <v>140.440756909345</v>
+        <v>60.32791599515339</v>
       </c>
       <c r="X8" t="n">
-        <v>140.440756909345</v>
+        <v>60.32791599515339</v>
       </c>
       <c r="Y8" t="n">
-        <v>140.440756909345</v>
+        <v>60.32791599515339</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>16.84896719680826</v>
+        <v>80.03602201388523</v>
       </c>
       <c r="C9" t="n">
-        <v>16.84896719680826</v>
+        <v>80.03602201388523</v>
       </c>
       <c r="D9" t="n">
-        <v>16.84896719680826</v>
+        <v>80.03602201388523</v>
       </c>
       <c r="E9" t="n">
-        <v>16.84896719680826</v>
+        <v>80.03602201388523</v>
       </c>
       <c r="F9" t="n">
-        <v>16.84896719680826</v>
+        <v>49.98240312158764</v>
       </c>
       <c r="G9" t="n">
-        <v>16.84896719680826</v>
+        <v>49.98240312158764</v>
       </c>
       <c r="H9" t="n">
-        <v>16.84896719680826</v>
+        <v>46.16277095879988</v>
       </c>
       <c r="I9" t="n">
-        <v>16.84896719680826</v>
+        <v>18.48814589086796</v>
       </c>
       <c r="J9" t="n">
-        <v>3.002344356966909</v>
+        <v>2.380246616269969</v>
       </c>
       <c r="K9" t="n">
-        <v>3.002344356966909</v>
+        <v>7.049851354353725</v>
       </c>
       <c r="L9" t="n">
-        <v>33.13522710018535</v>
+        <v>32.0893403575617</v>
       </c>
       <c r="M9" t="n">
-        <v>54.60199107769665</v>
+        <v>61.54489223390257</v>
       </c>
       <c r="N9" t="n">
-        <v>91.75600249516215</v>
+        <v>91.00044411024345</v>
       </c>
       <c r="O9" t="n">
-        <v>128.4760412668171</v>
+        <v>119.0123308134985</v>
       </c>
       <c r="P9" t="n">
-        <v>150.1172178483454</v>
+        <v>119.0123308134985</v>
       </c>
       <c r="Q9" t="n">
-        <v>144.2497337976361</v>
+        <v>110.0896409061828</v>
       </c>
       <c r="R9" t="n">
-        <v>109.6531289924081</v>
+        <v>80.03602201388523</v>
       </c>
       <c r="S9" t="n">
-        <v>71.74474064686628</v>
+        <v>80.03602201388523</v>
       </c>
       <c r="T9" t="n">
-        <v>33.8363523013245</v>
+        <v>80.03602201388523</v>
       </c>
       <c r="U9" t="n">
-        <v>16.84896719680826</v>
+        <v>80.03602201388523</v>
       </c>
       <c r="V9" t="n">
-        <v>16.84896719680826</v>
+        <v>80.03602201388523</v>
       </c>
       <c r="W9" t="n">
-        <v>16.84896719680826</v>
+        <v>80.03602201388523</v>
       </c>
       <c r="X9" t="n">
-        <v>16.84896719680826</v>
+        <v>80.03602201388523</v>
       </c>
       <c r="Y9" t="n">
-        <v>16.84896719680826</v>
+        <v>80.03602201388523</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.002344356966909</v>
+        <v>2.380246616269969</v>
       </c>
       <c r="C10" t="n">
-        <v>3.002344356966909</v>
+        <v>2.380246616269969</v>
       </c>
       <c r="D10" t="n">
-        <v>3.002344356966909</v>
+        <v>2.380246616269969</v>
       </c>
       <c r="E10" t="n">
-        <v>3.002344356966909</v>
+        <v>2.380246616269969</v>
       </c>
       <c r="F10" t="n">
-        <v>3.002344356966909</v>
+        <v>2.380246616269969</v>
       </c>
       <c r="G10" t="n">
-        <v>3.002344356966909</v>
+        <v>2.380246616269969</v>
       </c>
       <c r="H10" t="n">
-        <v>3.002344356966909</v>
+        <v>2.380246616269969</v>
       </c>
       <c r="I10" t="n">
-        <v>3.002344356966909</v>
+        <v>2.380246616269969</v>
       </c>
       <c r="J10" t="n">
-        <v>3.002344356966909</v>
+        <v>2.380246616269969</v>
       </c>
       <c r="K10" t="n">
-        <v>3.002344356966909</v>
+        <v>2.380246616269969</v>
       </c>
       <c r="L10" t="n">
-        <v>3.002344356966909</v>
+        <v>2.380246616269969</v>
       </c>
       <c r="M10" t="n">
-        <v>3.002344356966909</v>
+        <v>2.380246616269969</v>
       </c>
       <c r="N10" t="n">
-        <v>3.002344356966909</v>
+        <v>2.380246616269969</v>
       </c>
       <c r="O10" t="n">
-        <v>3.002344356966909</v>
+        <v>2.380246616269969</v>
       </c>
       <c r="P10" t="n">
-        <v>3.002344356966909</v>
+        <v>2.380246616269969</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.002344356966909</v>
+        <v>2.380246616269969</v>
       </c>
       <c r="R10" t="n">
-        <v>3.002344356966909</v>
+        <v>2.380246616269969</v>
       </c>
       <c r="S10" t="n">
-        <v>3.002344356966909</v>
+        <v>2.380246616269969</v>
       </c>
       <c r="T10" t="n">
-        <v>3.002344356966909</v>
+        <v>2.380246616269969</v>
       </c>
       <c r="U10" t="n">
-        <v>3.002344356966909</v>
+        <v>2.380246616269969</v>
       </c>
       <c r="V10" t="n">
-        <v>3.002344356966909</v>
+        <v>2.380246616269969</v>
       </c>
       <c r="W10" t="n">
-        <v>3.002344356966909</v>
+        <v>2.380246616269969</v>
       </c>
       <c r="X10" t="n">
-        <v>3.002344356966909</v>
+        <v>2.380246616269969</v>
       </c>
       <c r="Y10" t="n">
-        <v>3.002344356966909</v>
+        <v>2.380246616269969</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>809.673592794273</v>
+        <v>549.4981877051055</v>
       </c>
       <c r="C11" t="n">
-        <v>809.673592794273</v>
+        <v>549.4981877051055</v>
       </c>
       <c r="D11" t="n">
-        <v>809.673592794273</v>
+        <v>549.4981877051055</v>
       </c>
       <c r="E11" t="n">
-        <v>809.673592794273</v>
+        <v>549.4981877051055</v>
       </c>
       <c r="F11" t="n">
-        <v>555.8739381152477</v>
+        <v>285.2147192051509</v>
       </c>
       <c r="G11" t="n">
-        <v>302.0742834362225</v>
+        <v>20.93125070519639</v>
       </c>
       <c r="H11" t="n">
-        <v>48.27462875719724</v>
+        <v>20.93125070519639</v>
       </c>
       <c r="I11" t="n">
-        <v>20.1009326505788</v>
+        <v>20.93125070519639</v>
       </c>
       <c r="J11" t="n">
-        <v>73.04144146994372</v>
+        <v>76.73267701749937</v>
       </c>
       <c r="K11" t="n">
-        <v>172.9346406686122</v>
+        <v>180.9136499217283</v>
       </c>
       <c r="L11" t="n">
-        <v>311.8062009879286</v>
+        <v>325.1045726736795</v>
       </c>
       <c r="M11" t="n">
-        <v>479.153691693063</v>
+        <v>498.3708790165331</v>
       </c>
       <c r="N11" t="n">
-        <v>651.0776321476488</v>
+        <v>676.3094077337878</v>
       </c>
       <c r="O11" t="n">
-        <v>808.0197531247168</v>
+        <v>838.9309338536503</v>
       </c>
       <c r="P11" t="n">
-        <v>927.9933170464712</v>
+        <v>963.7517386670984</v>
       </c>
       <c r="Q11" t="n">
-        <v>998.5785047583926</v>
+        <v>1037.977002420381</v>
       </c>
       <c r="R11" t="n">
-        <v>1005.04663252894</v>
+        <v>1046.56253525982</v>
       </c>
       <c r="S11" t="n">
-        <v>1005.04663252894</v>
+        <v>946.4528982199033</v>
       </c>
       <c r="T11" t="n">
-        <v>1005.04663252894</v>
+        <v>806.4352031953143</v>
       </c>
       <c r="U11" t="n">
-        <v>1005.04663252894</v>
+        <v>549.4981877051055</v>
       </c>
       <c r="V11" t="n">
-        <v>1005.04663252894</v>
+        <v>549.4981877051055</v>
       </c>
       <c r="W11" t="n">
-        <v>809.673592794273</v>
+        <v>549.4981877051055</v>
       </c>
       <c r="X11" t="n">
-        <v>809.673592794273</v>
+        <v>549.4981877051055</v>
       </c>
       <c r="Y11" t="n">
-        <v>809.673592794273</v>
+        <v>549.4981877051055</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>500.4458575074081</v>
+        <v>285.9591991629064</v>
       </c>
       <c r="C12" t="n">
-        <v>366.4507862563538</v>
+        <v>285.9591991629064</v>
       </c>
       <c r="D12" t="n">
-        <v>249.5536284757463</v>
+        <v>169.0620413822988</v>
       </c>
       <c r="E12" t="n">
-        <v>129.0608124680742</v>
+        <v>48.56922537462677</v>
       </c>
       <c r="F12" t="n">
-        <v>20.1009326505788</v>
+        <v>48.56922537462677</v>
       </c>
       <c r="G12" t="n">
-        <v>20.1009326505788</v>
+        <v>20.93125070519639</v>
       </c>
       <c r="H12" t="n">
-        <v>20.1009326505788</v>
+        <v>20.93125070519639</v>
       </c>
       <c r="I12" t="n">
-        <v>20.1009326505788</v>
+        <v>20.93125070519639</v>
       </c>
       <c r="J12" t="n">
-        <v>44.01070900701698</v>
+        <v>46.54496992118163</v>
       </c>
       <c r="K12" t="n">
-        <v>116.5290291069113</v>
+        <v>121.9755997680674</v>
       </c>
       <c r="L12" t="n">
-        <v>232.7994889656053</v>
+        <v>242.162019482937</v>
       </c>
       <c r="M12" t="n">
-        <v>376.3211631071733</v>
+        <v>390.253434072768</v>
       </c>
       <c r="N12" t="n">
-        <v>529.4769300920763</v>
+        <v>548.0998889379124</v>
       </c>
       <c r="O12" t="n">
-        <v>660.5855184200024</v>
+        <v>683.4995402759981</v>
       </c>
       <c r="P12" t="n">
-        <v>757.9818274619605</v>
+        <v>784.3398056904069</v>
       </c>
       <c r="Q12" t="n">
-        <v>802.8714061998103</v>
+        <v>831.5315780582765</v>
       </c>
       <c r="R12" t="n">
-        <v>802.8714061998103</v>
+        <v>831.5315780582765</v>
       </c>
       <c r="S12" t="n">
-        <v>796.8362899398929</v>
+        <v>831.5315780582765</v>
       </c>
       <c r="T12" t="n">
-        <v>640.7488901429947</v>
+        <v>675.5183492876848</v>
       </c>
       <c r="U12" t="n">
-        <v>640.7488901429947</v>
+        <v>675.5183492876848</v>
       </c>
       <c r="V12" t="n">
-        <v>640.7488901429947</v>
+        <v>675.5183492876848</v>
       </c>
       <c r="W12" t="n">
-        <v>640.7488901429947</v>
+        <v>462.2851810240136</v>
       </c>
       <c r="X12" t="n">
-        <v>640.7488901429947</v>
+        <v>285.9591991629064</v>
       </c>
       <c r="Y12" t="n">
-        <v>640.7488901429947</v>
+        <v>285.9591991629064</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>251.9098901154237</v>
+        <v>20.93125070519639</v>
       </c>
       <c r="C13" t="n">
-        <v>251.9098901154237</v>
+        <v>20.93125070519639</v>
       </c>
       <c r="D13" t="n">
-        <v>251.9098901154237</v>
+        <v>20.93125070519639</v>
       </c>
       <c r="E13" t="n">
-        <v>251.9098901154237</v>
+        <v>20.93125070519639</v>
       </c>
       <c r="F13" t="n">
-        <v>251.9098901154237</v>
+        <v>20.93125070519639</v>
       </c>
       <c r="G13" t="n">
-        <v>251.9098901154237</v>
+        <v>20.93125070519639</v>
       </c>
       <c r="H13" t="n">
-        <v>116.090366792294</v>
+        <v>20.93125070519639</v>
       </c>
       <c r="I13" t="n">
-        <v>20.1009326505788</v>
+        <v>20.93125070519639</v>
       </c>
       <c r="J13" t="n">
-        <v>20.1009326505788</v>
+        <v>20.93125070519639</v>
       </c>
       <c r="K13" t="n">
-        <v>45.45298335333647</v>
+        <v>48.03999513419262</v>
       </c>
       <c r="L13" t="n">
-        <v>90.00672791669859</v>
+        <v>94.84170285865844</v>
       </c>
       <c r="M13" t="n">
-        <v>138.3020092835613</v>
+        <v>145.5071461912121</v>
       </c>
       <c r="N13" t="n">
-        <v>188.6312347966904</v>
+        <v>198.1501765160607</v>
       </c>
       <c r="O13" t="n">
-        <v>226.8916195676325</v>
+        <v>238.5477345307866</v>
       </c>
       <c r="P13" t="n">
-        <v>251.9098901154237</v>
+        <v>265.3947259967216</v>
       </c>
       <c r="Q13" t="n">
-        <v>251.9098901154237</v>
+        <v>265.3947259967216</v>
       </c>
       <c r="R13" t="n">
-        <v>251.9098901154237</v>
+        <v>265.3947259967216</v>
       </c>
       <c r="S13" t="n">
-        <v>251.9098901154237</v>
+        <v>265.3947259967216</v>
       </c>
       <c r="T13" t="n">
-        <v>251.9098901154237</v>
+        <v>265.3947259967216</v>
       </c>
       <c r="U13" t="n">
-        <v>251.9098901154237</v>
+        <v>265.3947259967216</v>
       </c>
       <c r="V13" t="n">
-        <v>251.9098901154237</v>
+        <v>20.93125070519639</v>
       </c>
       <c r="W13" t="n">
-        <v>251.9098901154237</v>
+        <v>20.93125070519639</v>
       </c>
       <c r="X13" t="n">
-        <v>251.9098901154237</v>
+        <v>20.93125070519639</v>
       </c>
       <c r="Y13" t="n">
-        <v>251.9098901154237</v>
+        <v>20.93125070519639</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>497.4473231708894</v>
+        <v>20.9312507051964</v>
       </c>
       <c r="C14" t="n">
-        <v>497.4473231708894</v>
+        <v>20.9312507051964</v>
       </c>
       <c r="D14" t="n">
-        <v>243.6476684918641</v>
+        <v>20.9312507051964</v>
       </c>
       <c r="E14" t="n">
-        <v>20.1009326505788</v>
+        <v>20.9312507051964</v>
       </c>
       <c r="F14" t="n">
-        <v>20.1009326505788</v>
+        <v>20.9312507051964</v>
       </c>
       <c r="G14" t="n">
-        <v>20.1009326505788</v>
+        <v>20.9312507051964</v>
       </c>
       <c r="H14" t="n">
-        <v>20.1009326505788</v>
+        <v>20.9312507051964</v>
       </c>
       <c r="I14" t="n">
-        <v>20.1009326505788</v>
+        <v>20.9312507051964</v>
       </c>
       <c r="J14" t="n">
-        <v>73.04144146994362</v>
+        <v>76.73267701749933</v>
       </c>
       <c r="K14" t="n">
-        <v>172.9346406686118</v>
+        <v>180.9136499217283</v>
       </c>
       <c r="L14" t="n">
-        <v>311.8062009879284</v>
+        <v>325.1045726736795</v>
       </c>
       <c r="M14" t="n">
-        <v>479.1536916930629</v>
+        <v>498.3708790165332</v>
       </c>
       <c r="N14" t="n">
-        <v>651.0776321476488</v>
+        <v>676.3094077337878</v>
       </c>
       <c r="O14" t="n">
-        <v>808.0197531247168</v>
+        <v>838.9309338536505</v>
       </c>
       <c r="P14" t="n">
-        <v>927.9933170464712</v>
+        <v>963.7517386670985</v>
       </c>
       <c r="Q14" t="n">
-        <v>998.5785047583926</v>
+        <v>1037.977002420382</v>
       </c>
       <c r="R14" t="n">
-        <v>1005.04663252894</v>
+        <v>1046.56253525982</v>
       </c>
       <c r="S14" t="n">
-        <v>1005.04663252894</v>
+        <v>946.4528982199035</v>
       </c>
       <c r="T14" t="n">
-        <v>1005.04663252894</v>
+        <v>806.4352031953143</v>
       </c>
       <c r="U14" t="n">
-        <v>751.2469778499146</v>
+        <v>549.4981877051055</v>
       </c>
       <c r="V14" t="n">
-        <v>751.2469778499146</v>
+        <v>285.214719205151</v>
       </c>
       <c r="W14" t="n">
-        <v>497.4473231708894</v>
+        <v>285.214719205151</v>
       </c>
       <c r="X14" t="n">
-        <v>497.4473231708894</v>
+        <v>20.9312507051964</v>
       </c>
       <c r="Y14" t="n">
-        <v>497.4473231708894</v>
+        <v>20.9312507051964</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>142.7822267316047</v>
+        <v>20.9312507051964</v>
       </c>
       <c r="C15" t="n">
-        <v>142.7822267316047</v>
+        <v>20.9312507051964</v>
       </c>
       <c r="D15" t="n">
-        <v>142.7822267316047</v>
+        <v>20.9312507051964</v>
       </c>
       <c r="E15" t="n">
-        <v>129.0608124680742</v>
+        <v>20.9312507051964</v>
       </c>
       <c r="F15" t="n">
-        <v>20.1009326505788</v>
+        <v>20.9312507051964</v>
       </c>
       <c r="G15" t="n">
-        <v>20.1009326505788</v>
+        <v>20.9312507051964</v>
       </c>
       <c r="H15" t="n">
-        <v>20.1009326505788</v>
+        <v>20.9312507051964</v>
       </c>
       <c r="I15" t="n">
-        <v>20.1009326505788</v>
+        <v>20.9312507051964</v>
       </c>
       <c r="J15" t="n">
-        <v>44.010709007017</v>
+        <v>46.54496992118162</v>
       </c>
       <c r="K15" t="n">
-        <v>116.5290291069113</v>
+        <v>121.9755997680674</v>
       </c>
       <c r="L15" t="n">
-        <v>232.7994889656053</v>
+        <v>242.1620194829369</v>
       </c>
       <c r="M15" t="n">
-        <v>376.3211631071733</v>
+        <v>390.2534340727678</v>
       </c>
       <c r="N15" t="n">
-        <v>529.4769300920764</v>
+        <v>548.0998889379123</v>
       </c>
       <c r="O15" t="n">
-        <v>660.5855184200025</v>
+        <v>683.499540275998</v>
       </c>
       <c r="P15" t="n">
-        <v>757.9818274619606</v>
+        <v>784.3398056904068</v>
       </c>
       <c r="Q15" t="n">
-        <v>802.8714061998104</v>
+        <v>831.5315780582764</v>
       </c>
       <c r="R15" t="n">
-        <v>802.8714061998104</v>
+        <v>831.5315780582764</v>
       </c>
       <c r="S15" t="n">
-        <v>709.8788447451923</v>
+        <v>831.5315780582764</v>
       </c>
       <c r="T15" t="n">
-        <v>553.791444948294</v>
+        <v>831.5315780582764</v>
       </c>
       <c r="U15" t="n">
-        <v>356.4937537385708</v>
+        <v>634.2350974746627</v>
       </c>
       <c r="V15" t="n">
-        <v>142.7822267316047</v>
+        <v>420.5235704676965</v>
       </c>
       <c r="W15" t="n">
-        <v>142.7822267316047</v>
+        <v>207.2904022040252</v>
       </c>
       <c r="X15" t="n">
-        <v>142.7822267316047</v>
+        <v>30.964420342918</v>
       </c>
       <c r="Y15" t="n">
-        <v>142.7822267316047</v>
+        <v>20.9312507051964</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>251.9098901154238</v>
+        <v>185.5623765946051</v>
       </c>
       <c r="C16" t="n">
-        <v>251.9098901154238</v>
+        <v>185.5623765946051</v>
       </c>
       <c r="D16" t="n">
-        <v>251.9098901154238</v>
+        <v>185.5623765946051</v>
       </c>
       <c r="E16" t="n">
-        <v>251.9098901154238</v>
+        <v>185.5623765946051</v>
       </c>
       <c r="F16" t="n">
-        <v>251.9098901154238</v>
+        <v>20.9312507051964</v>
       </c>
       <c r="G16" t="n">
-        <v>251.9098901154238</v>
+        <v>20.9312507051964</v>
       </c>
       <c r="H16" t="n">
-        <v>116.090366792294</v>
+        <v>20.9312507051964</v>
       </c>
       <c r="I16" t="n">
-        <v>20.1009326505788</v>
+        <v>20.9312507051964</v>
       </c>
       <c r="J16" t="n">
-        <v>20.1009326505788</v>
+        <v>20.9312507051964</v>
       </c>
       <c r="K16" t="n">
-        <v>45.45298335333647</v>
+        <v>48.03999513419261</v>
       </c>
       <c r="L16" t="n">
-        <v>90.00672791669859</v>
+        <v>94.84170285865841</v>
       </c>
       <c r="M16" t="n">
-        <v>138.3020092835613</v>
+        <v>145.5071461912121</v>
       </c>
       <c r="N16" t="n">
-        <v>188.6312347966904</v>
+        <v>198.1501765160606</v>
       </c>
       <c r="O16" t="n">
-        <v>226.8916195676326</v>
+        <v>238.5477345307866</v>
       </c>
       <c r="P16" t="n">
-        <v>251.9098901154238</v>
+        <v>265.3947259967215</v>
       </c>
       <c r="Q16" t="n">
-        <v>251.9098901154238</v>
+        <v>265.3947259967215</v>
       </c>
       <c r="R16" t="n">
-        <v>251.9098901154238</v>
+        <v>265.3947259967215</v>
       </c>
       <c r="S16" t="n">
-        <v>251.9098901154238</v>
+        <v>265.3947259967215</v>
       </c>
       <c r="T16" t="n">
-        <v>251.9098901154238</v>
+        <v>265.3947259967215</v>
       </c>
       <c r="U16" t="n">
-        <v>251.9098901154238</v>
+        <v>185.5623765946051</v>
       </c>
       <c r="V16" t="n">
-        <v>251.9098901154238</v>
+        <v>185.5623765946051</v>
       </c>
       <c r="W16" t="n">
-        <v>251.9098901154238</v>
+        <v>185.5623765946051</v>
       </c>
       <c r="X16" t="n">
-        <v>251.9098901154238</v>
+        <v>185.5623765946051</v>
       </c>
       <c r="Y16" t="n">
-        <v>251.9098901154238</v>
+        <v>185.5623765946051</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>527.7002420086294</v>
+        <v>549.4981877051059</v>
       </c>
       <c r="C17" t="n">
-        <v>527.7002420086294</v>
+        <v>549.4981877051059</v>
       </c>
       <c r="D17" t="n">
-        <v>273.9005873296041</v>
+        <v>549.4981877051059</v>
       </c>
       <c r="E17" t="n">
-        <v>20.1009326505788</v>
+        <v>285.2147192051512</v>
       </c>
       <c r="F17" t="n">
-        <v>20.1009326505788</v>
+        <v>285.2147192051512</v>
       </c>
       <c r="G17" t="n">
-        <v>20.1009326505788</v>
+        <v>285.2147192051512</v>
       </c>
       <c r="H17" t="n">
-        <v>20.1009326505788</v>
+        <v>20.93125070519642</v>
       </c>
       <c r="I17" t="n">
-        <v>20.1009326505788</v>
+        <v>20.93125070519642</v>
       </c>
       <c r="J17" t="n">
-        <v>73.04144146994375</v>
+        <v>76.73267701749951</v>
       </c>
       <c r="K17" t="n">
-        <v>172.934640668612</v>
+        <v>180.9136499217285</v>
       </c>
       <c r="L17" t="n">
-        <v>311.8062009879284</v>
+        <v>325.1045726736799</v>
       </c>
       <c r="M17" t="n">
-        <v>479.1536916930629</v>
+        <v>498.3708790165336</v>
       </c>
       <c r="N17" t="n">
-        <v>651.0776321476488</v>
+        <v>676.3094077337885</v>
       </c>
       <c r="O17" t="n">
-        <v>808.0197531247168</v>
+        <v>838.9309338536511</v>
       </c>
       <c r="P17" t="n">
-        <v>927.9933170464712</v>
+        <v>963.7517386670994</v>
       </c>
       <c r="Q17" t="n">
-        <v>998.5785047583927</v>
+        <v>1037.977002420383</v>
       </c>
       <c r="R17" t="n">
-        <v>1005.04663252894</v>
+        <v>1046.562535259821</v>
       </c>
       <c r="S17" t="n">
-        <v>1005.04663252894</v>
+        <v>1046.562535259821</v>
       </c>
       <c r="T17" t="n">
-        <v>1005.04663252894</v>
+        <v>1046.562535259821</v>
       </c>
       <c r="U17" t="n">
-        <v>1005.04663252894</v>
+        <v>813.7816562050607</v>
       </c>
       <c r="V17" t="n">
-        <v>781.4998966876547</v>
+        <v>813.7816562050607</v>
       </c>
       <c r="W17" t="n">
-        <v>781.4998966876547</v>
+        <v>549.4981877051059</v>
       </c>
       <c r="X17" t="n">
-        <v>781.4998966876547</v>
+        <v>549.4981877051059</v>
       </c>
       <c r="Y17" t="n">
-        <v>781.4998966876547</v>
+        <v>549.4981877051059</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>20.1009326505788</v>
+        <v>352.9525807608136</v>
       </c>
       <c r="C18" t="n">
-        <v>20.1009326505788</v>
+        <v>352.9525807608136</v>
       </c>
       <c r="D18" t="n">
-        <v>20.1009326505788</v>
+        <v>236.055422980206</v>
       </c>
       <c r="E18" t="n">
-        <v>20.1009326505788</v>
+        <v>236.055422980206</v>
       </c>
       <c r="F18" t="n">
-        <v>20.1009326505788</v>
+        <v>127.0955431627106</v>
       </c>
       <c r="G18" t="n">
-        <v>20.1009326505788</v>
+        <v>20.93125070519642</v>
       </c>
       <c r="H18" t="n">
-        <v>20.1009326505788</v>
+        <v>20.93125070519642</v>
       </c>
       <c r="I18" t="n">
-        <v>20.1009326505788</v>
+        <v>20.93125070519642</v>
       </c>
       <c r="J18" t="n">
-        <v>44.010709007017</v>
+        <v>46.5449699211817</v>
       </c>
       <c r="K18" t="n">
-        <v>116.5290291069113</v>
+        <v>121.9755997680676</v>
       </c>
       <c r="L18" t="n">
-        <v>232.7994889656053</v>
+        <v>242.1620194829372</v>
       </c>
       <c r="M18" t="n">
-        <v>376.3211631071733</v>
+        <v>390.2534340727683</v>
       </c>
       <c r="N18" t="n">
-        <v>529.4769300920764</v>
+        <v>548.0998889379129</v>
       </c>
       <c r="O18" t="n">
-        <v>660.5855184200025</v>
+        <v>683.4995402759987</v>
       </c>
       <c r="P18" t="n">
-        <v>757.9818274619606</v>
+        <v>784.3398056904076</v>
       </c>
       <c r="Q18" t="n">
-        <v>802.8714061998104</v>
+        <v>831.5315780582773</v>
       </c>
       <c r="R18" t="n">
-        <v>802.8714061998104</v>
+        <v>831.5315780582773</v>
       </c>
       <c r="S18" t="n">
-        <v>800.4307189278377</v>
+        <v>763.4822296080986</v>
       </c>
       <c r="T18" t="n">
-        <v>644.3433191309394</v>
+        <v>763.4822296080986</v>
       </c>
       <c r="U18" t="n">
-        <v>447.0456279212162</v>
+        <v>566.1857490244848</v>
       </c>
       <c r="V18" t="n">
-        <v>233.3341009142501</v>
+        <v>566.1857490244848</v>
       </c>
       <c r="W18" t="n">
-        <v>20.1009326505788</v>
+        <v>352.9525807608136</v>
       </c>
       <c r="X18" t="n">
-        <v>20.1009326505788</v>
+        <v>352.9525807608136</v>
       </c>
       <c r="Y18" t="n">
-        <v>20.1009326505788</v>
+        <v>352.9525807608136</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>20.1009326505788</v>
+        <v>20.93125070519642</v>
       </c>
       <c r="C19" t="n">
-        <v>20.1009326505788</v>
+        <v>20.93125070519642</v>
       </c>
       <c r="D19" t="n">
-        <v>20.1009326505788</v>
+        <v>20.93125070519642</v>
       </c>
       <c r="E19" t="n">
-        <v>20.1009326505788</v>
+        <v>20.93125070519642</v>
       </c>
       <c r="F19" t="n">
-        <v>20.1009326505788</v>
+        <v>20.93125070519642</v>
       </c>
       <c r="G19" t="n">
-        <v>20.1009326505788</v>
+        <v>20.93125070519642</v>
       </c>
       <c r="H19" t="n">
-        <v>20.1009326505788</v>
+        <v>20.93125070519642</v>
       </c>
       <c r="I19" t="n">
-        <v>20.1009326505788</v>
+        <v>20.93125070519642</v>
       </c>
       <c r="J19" t="n">
-        <v>20.1009326505788</v>
+        <v>20.93125070519642</v>
       </c>
       <c r="K19" t="n">
-        <v>45.45298335333648</v>
+        <v>48.03999513419268</v>
       </c>
       <c r="L19" t="n">
-        <v>90.00672791669861</v>
+        <v>94.84170285865855</v>
       </c>
       <c r="M19" t="n">
-        <v>138.3020092835613</v>
+        <v>145.5071461912123</v>
       </c>
       <c r="N19" t="n">
-        <v>188.6312347966904</v>
+        <v>198.1501765160609</v>
       </c>
       <c r="O19" t="n">
-        <v>226.8916195676326</v>
+        <v>238.5477345307869</v>
       </c>
       <c r="P19" t="n">
-        <v>251.9098901154238</v>
+        <v>265.3947259967219</v>
       </c>
       <c r="Q19" t="n">
-        <v>251.9098901154238</v>
+        <v>265.3947259967219</v>
       </c>
       <c r="R19" t="n">
-        <v>251.9098901154238</v>
+        <v>265.3947259967219</v>
       </c>
       <c r="S19" t="n">
-        <v>251.9098901154238</v>
+        <v>265.3947259967219</v>
       </c>
       <c r="T19" t="n">
-        <v>251.9098901154238</v>
+        <v>265.3947259967219</v>
       </c>
       <c r="U19" t="n">
-        <v>20.1009326505788</v>
+        <v>265.3947259967219</v>
       </c>
       <c r="V19" t="n">
-        <v>20.1009326505788</v>
+        <v>265.3947259967219</v>
       </c>
       <c r="W19" t="n">
-        <v>20.1009326505788</v>
+        <v>20.93125070519642</v>
       </c>
       <c r="X19" t="n">
-        <v>20.1009326505788</v>
+        <v>20.93125070519642</v>
       </c>
       <c r="Y19" t="n">
-        <v>20.1009326505788</v>
+        <v>20.93125070519642</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>273.900587329604</v>
+        <v>549.4981877051061</v>
       </c>
       <c r="C20" t="n">
-        <v>273.900587329604</v>
+        <v>285.2147192051513</v>
       </c>
       <c r="D20" t="n">
-        <v>20.1009326505788</v>
+        <v>285.2147192051513</v>
       </c>
       <c r="E20" t="n">
-        <v>20.1009326505788</v>
+        <v>20.93125070519643</v>
       </c>
       <c r="F20" t="n">
-        <v>20.1009326505788</v>
+        <v>20.93125070519643</v>
       </c>
       <c r="G20" t="n">
-        <v>20.1009326505788</v>
+        <v>20.93125070519643</v>
       </c>
       <c r="H20" t="n">
-        <v>20.1009326505788</v>
+        <v>20.93125070519643</v>
       </c>
       <c r="I20" t="n">
-        <v>20.1009326505788</v>
+        <v>20.93125070519643</v>
       </c>
       <c r="J20" t="n">
-        <v>73.04144146994362</v>
+        <v>76.73267701749944</v>
       </c>
       <c r="K20" t="n">
-        <v>172.9346406686118</v>
+        <v>180.9136499217285</v>
       </c>
       <c r="L20" t="n">
-        <v>311.8062009879284</v>
+        <v>325.1045726736801</v>
       </c>
       <c r="M20" t="n">
-        <v>479.1536916930629</v>
+        <v>498.3708790165339</v>
       </c>
       <c r="N20" t="n">
-        <v>651.0776321476488</v>
+        <v>676.3094077337887</v>
       </c>
       <c r="O20" t="n">
-        <v>808.0197531247168</v>
+        <v>838.9309338536516</v>
       </c>
       <c r="P20" t="n">
-        <v>927.9933170464712</v>
+        <v>963.7517386670996</v>
       </c>
       <c r="Q20" t="n">
-        <v>998.5785047583926</v>
+        <v>1037.977002420383</v>
       </c>
       <c r="R20" t="n">
-        <v>1005.04663252894</v>
+        <v>1046.562535259821</v>
       </c>
       <c r="S20" t="n">
-        <v>1005.04663252894</v>
+        <v>1029.231674188138</v>
       </c>
       <c r="T20" t="n">
-        <v>1005.04663252894</v>
+        <v>813.781656205061</v>
       </c>
       <c r="U20" t="n">
-        <v>1005.04663252894</v>
+        <v>813.781656205061</v>
       </c>
       <c r="V20" t="n">
-        <v>751.2469778499146</v>
+        <v>813.781656205061</v>
       </c>
       <c r="W20" t="n">
-        <v>497.4473231708894</v>
+        <v>813.781656205061</v>
       </c>
       <c r="X20" t="n">
-        <v>273.900587329604</v>
+        <v>813.781656205061</v>
       </c>
       <c r="Y20" t="n">
-        <v>273.900587329604</v>
+        <v>813.781656205061</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>222.2761589797082</v>
+        <v>127.0955431627106</v>
       </c>
       <c r="C21" t="n">
-        <v>222.2761589797082</v>
+        <v>127.0955431627106</v>
       </c>
       <c r="D21" t="n">
-        <v>222.2761589797082</v>
+        <v>127.0955431627106</v>
       </c>
       <c r="E21" t="n">
-        <v>222.2761589797082</v>
+        <v>127.0955431627106</v>
       </c>
       <c r="F21" t="n">
-        <v>222.2761589797082</v>
+        <v>127.0955431627106</v>
       </c>
       <c r="G21" t="n">
-        <v>222.2761589797082</v>
+        <v>20.93125070519643</v>
       </c>
       <c r="H21" t="n">
-        <v>222.2761589797082</v>
+        <v>20.93125070519643</v>
       </c>
       <c r="I21" t="n">
-        <v>222.2761589797082</v>
+        <v>20.93125070519643</v>
       </c>
       <c r="J21" t="n">
-        <v>246.1859353361463</v>
+        <v>46.54496992118172</v>
       </c>
       <c r="K21" t="n">
-        <v>318.7042554360406</v>
+        <v>121.9755997680676</v>
       </c>
       <c r="L21" t="n">
-        <v>434.9747152947347</v>
+        <v>242.1620194829372</v>
       </c>
       <c r="M21" t="n">
-        <v>578.4963894363027</v>
+        <v>390.2534340727683</v>
       </c>
       <c r="N21" t="n">
-        <v>731.6521564212057</v>
+        <v>548.0998889379129</v>
       </c>
       <c r="O21" t="n">
-        <v>862.760744749132</v>
+        <v>683.4995402759987</v>
       </c>
       <c r="P21" t="n">
-        <v>960.1570537910901</v>
+        <v>784.3398056904076</v>
       </c>
       <c r="Q21" t="n">
-        <v>1005.04663252894</v>
+        <v>831.5315780582773</v>
       </c>
       <c r="R21" t="n">
-        <v>1005.04663252894</v>
+        <v>831.5315780582773</v>
       </c>
       <c r="S21" t="n">
-        <v>1005.04663252894</v>
+        <v>831.5315780582773</v>
       </c>
       <c r="T21" t="n">
-        <v>1005.04663252894</v>
+        <v>831.5315780582773</v>
       </c>
       <c r="U21" t="n">
-        <v>825.5468361114529</v>
+        <v>640.5120624414334</v>
       </c>
       <c r="V21" t="n">
-        <v>611.8353091044867</v>
+        <v>426.8005354344672</v>
       </c>
       <c r="W21" t="n">
-        <v>398.6021408408154</v>
+        <v>426.8005354344672</v>
       </c>
       <c r="X21" t="n">
-        <v>222.2761589797082</v>
+        <v>426.8005354344672</v>
       </c>
       <c r="Y21" t="n">
-        <v>222.2761589797082</v>
+        <v>267.3985757982972</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1005.04663252894</v>
+        <v>20.93125070519643</v>
       </c>
       <c r="C22" t="n">
-        <v>1005.04663252894</v>
+        <v>20.93125070519643</v>
       </c>
       <c r="D22" t="n">
-        <v>1005.04663252894</v>
+        <v>20.93125070519643</v>
       </c>
       <c r="E22" t="n">
-        <v>1005.04663252894</v>
+        <v>20.93125070519643</v>
       </c>
       <c r="F22" t="n">
-        <v>1005.04663252894</v>
+        <v>20.93125070519643</v>
       </c>
       <c r="G22" t="n">
-        <v>838.4731541790708</v>
+        <v>20.93125070519643</v>
       </c>
       <c r="H22" t="n">
-        <v>773.237675064095</v>
+        <v>20.93125070519643</v>
       </c>
       <c r="I22" t="n">
-        <v>773.237675064095</v>
+        <v>20.93125070519643</v>
       </c>
       <c r="J22" t="n">
-        <v>773.237675064095</v>
+        <v>20.93125070519643</v>
       </c>
       <c r="K22" t="n">
-        <v>798.5897257668527</v>
+        <v>48.03999513419269</v>
       </c>
       <c r="L22" t="n">
-        <v>843.1434703302148</v>
+        <v>94.84170285865858</v>
       </c>
       <c r="M22" t="n">
-        <v>891.4387516970775</v>
+        <v>145.5071461912124</v>
       </c>
       <c r="N22" t="n">
-        <v>941.7679772102066</v>
+        <v>198.150176516061</v>
       </c>
       <c r="O22" t="n">
-        <v>980.0283619811487</v>
+        <v>238.547734530787</v>
       </c>
       <c r="P22" t="n">
-        <v>1005.04663252894</v>
+        <v>265.394725996722</v>
       </c>
       <c r="Q22" t="n">
-        <v>1005.04663252894</v>
+        <v>265.394725996722</v>
       </c>
       <c r="R22" t="n">
-        <v>1005.04663252894</v>
+        <v>265.394725996722</v>
       </c>
       <c r="S22" t="n">
-        <v>1005.04663252894</v>
+        <v>265.394725996722</v>
       </c>
       <c r="T22" t="n">
-        <v>1005.04663252894</v>
+        <v>265.394725996722</v>
       </c>
       <c r="U22" t="n">
-        <v>1005.04663252894</v>
+        <v>20.93125070519643</v>
       </c>
       <c r="V22" t="n">
-        <v>1005.04663252894</v>
+        <v>20.93125070519643</v>
       </c>
       <c r="W22" t="n">
-        <v>1005.04663252894</v>
+        <v>20.93125070519643</v>
       </c>
       <c r="X22" t="n">
-        <v>1005.04663252894</v>
+        <v>20.93125070519643</v>
       </c>
       <c r="Y22" t="n">
-        <v>1005.04663252894</v>
+        <v>20.93125070519643</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>523.3810643567873</v>
+        <v>447.8685954219921</v>
       </c>
       <c r="C23" t="n">
-        <v>523.3810643567873</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="D23" t="n">
-        <v>523.3810643567873</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="E23" t="n">
-        <v>109.040848873684</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="F23" t="n">
-        <v>109.040848873684</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="G23" t="n">
-        <v>109.040848873684</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="H23" t="n">
         <v>37.7440047352622</v>
@@ -5992,19 +5992,19 @@
         <v>151.4749218512231</v>
       </c>
       <c r="K23" t="n">
-        <v>342.4771847987904</v>
+        <v>342.4771847987905</v>
       </c>
       <c r="L23" t="n">
-        <v>594.3775951131297</v>
+        <v>594.3775951131299</v>
       </c>
       <c r="M23" t="n">
-        <v>887.4914597655641</v>
+        <v>887.4914597655645</v>
       </c>
       <c r="N23" t="n">
-        <v>1187.216805582613</v>
+        <v>1187.216805582614</v>
       </c>
       <c r="O23" t="n">
-        <v>1464.838169622266</v>
+        <v>1464.838169622267</v>
       </c>
       <c r="P23" t="n">
         <v>1687.808675484973</v>
@@ -6022,19 +6022,19 @@
         <v>1674.798689903264</v>
       </c>
       <c r="U23" t="n">
-        <v>1674.798689903264</v>
+        <v>1417.917386049802</v>
       </c>
       <c r="V23" t="n">
-        <v>1324.961135239745</v>
+        <v>1068.079831386282</v>
       </c>
       <c r="W23" t="n">
-        <v>1324.961135239745</v>
+        <v>684.319530521451</v>
       </c>
       <c r="X23" t="n">
-        <v>924.3177374086972</v>
+        <v>684.319530521451</v>
       </c>
       <c r="Y23" t="n">
-        <v>523.3810643567873</v>
+        <v>684.319530521451</v>
       </c>
     </row>
     <row r="24">
@@ -6044,13 +6044,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>326.6649594476208</v>
+        <v>331.555547600915</v>
       </c>
       <c r="C24" t="n">
-        <v>275.1339785235418</v>
+        <v>197.5604763498607</v>
       </c>
       <c r="D24" t="n">
-        <v>158.2368207429342</v>
+        <v>80.66331856925309</v>
       </c>
       <c r="E24" t="n">
         <v>37.7440047352622</v>
@@ -6098,22 +6098,22 @@
         <v>1426.912595986079</v>
       </c>
       <c r="T24" t="n">
-        <v>1426.912595986079</v>
+        <v>1272.401224503203</v>
       </c>
       <c r="U24" t="n">
-        <v>1229.640628851122</v>
+        <v>1075.129257368246</v>
       </c>
       <c r="V24" t="n">
-        <v>1015.929101844156</v>
+        <v>861.4177303612801</v>
       </c>
       <c r="W24" t="n">
-        <v>802.6959335804846</v>
+        <v>648.1845620976088</v>
       </c>
       <c r="X24" t="n">
-        <v>626.3699517193775</v>
+        <v>471.8585802365016</v>
       </c>
       <c r="Y24" t="n">
-        <v>466.9679920832075</v>
+        <v>471.8585802365016</v>
       </c>
     </row>
     <row r="25">
@@ -6186,10 +6186,10 @@
         <v>296.1126500709257</v>
       </c>
       <c r="W25" t="n">
-        <v>296.1126500709257</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="X25" t="n">
-        <v>262.4797033464975</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="Y25" t="n">
         <v>37.7440047352622</v>
@@ -6202,40 +6202,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>55.38023798159344</v>
+        <v>444.2324402545842</v>
       </c>
       <c r="C26" t="n">
-        <v>37.74400473526219</v>
+        <v>444.2324402545842</v>
       </c>
       <c r="D26" t="n">
-        <v>37.74400473526219</v>
+        <v>444.2324402545842</v>
       </c>
       <c r="E26" t="n">
-        <v>37.74400473526219</v>
+        <v>444.2324402545842</v>
       </c>
       <c r="F26" t="n">
-        <v>37.74400473526219</v>
+        <v>444.2324402545842</v>
       </c>
       <c r="G26" t="n">
-        <v>37.74400473526219</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="H26" t="n">
-        <v>37.74400473526219</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="I26" t="n">
-        <v>37.74400473526219</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="J26" t="n">
-        <v>151.4749218512231</v>
+        <v>151.4749218512229</v>
       </c>
       <c r="K26" t="n">
-        <v>342.4771847987903</v>
+        <v>342.4771847987902</v>
       </c>
       <c r="L26" t="n">
-        <v>594.3775951131297</v>
+        <v>594.3775951131295</v>
       </c>
       <c r="M26" t="n">
-        <v>887.4914597655641</v>
+        <v>887.4914597655638</v>
       </c>
       <c r="N26" t="n">
         <v>1187.216805582613</v>
@@ -6247,7 +6247,7 @@
         <v>1687.808675484973</v>
       </c>
       <c r="Q26" t="n">
-        <v>1835.740277181654</v>
+        <v>1835.740277181655</v>
       </c>
       <c r="R26" t="n">
         <v>1887.20023676311</v>
@@ -6259,19 +6259,19 @@
         <v>1590.558164392902</v>
       </c>
       <c r="U26" t="n">
-        <v>1590.558164392902</v>
+        <v>1333.67686053944</v>
       </c>
       <c r="V26" t="n">
-        <v>1240.720609729382</v>
+        <v>983.8393058759204</v>
       </c>
       <c r="W26" t="n">
-        <v>856.9603088645508</v>
+        <v>600.0790050110891</v>
       </c>
       <c r="X26" t="n">
-        <v>456.3169110335033</v>
+        <v>444.2324402545842</v>
       </c>
       <c r="Y26" t="n">
-        <v>55.38023798159344</v>
+        <v>444.2324402545842</v>
       </c>
     </row>
     <row r="27">
@@ -6281,31 +6281,31 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>577.2618834585351</v>
+        <v>326.6649594476208</v>
       </c>
       <c r="C27" t="n">
-        <v>443.2668122074807</v>
+        <v>192.6698881965665</v>
       </c>
       <c r="D27" t="n">
-        <v>326.3696544268731</v>
+        <v>192.6698881965665</v>
       </c>
       <c r="E27" t="n">
-        <v>205.8768384192011</v>
+        <v>146.7038845527576</v>
       </c>
       <c r="F27" t="n">
-        <v>96.91695860170567</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="G27" t="n">
-        <v>96.91695860170567</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="H27" t="n">
-        <v>37.74400473526219</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="I27" t="n">
-        <v>38.28095199337145</v>
+        <v>38.28095199337146</v>
       </c>
       <c r="J27" t="n">
-        <v>98.39707907527368</v>
+        <v>98.39707907527369</v>
       </c>
       <c r="K27" t="n">
         <v>232.7978194276822</v>
@@ -6335,22 +6335,22 @@
         <v>1426.912595986079</v>
       </c>
       <c r="T27" t="n">
-        <v>1272.401224503203</v>
+        <v>1426.912595986079</v>
       </c>
       <c r="U27" t="n">
-        <v>1272.401224503203</v>
+        <v>1229.640628851122</v>
       </c>
       <c r="V27" t="n">
-        <v>1058.689697496237</v>
+        <v>1015.929101844156</v>
       </c>
       <c r="W27" t="n">
-        <v>1053.292857591399</v>
+        <v>802.6959335804846</v>
       </c>
       <c r="X27" t="n">
-        <v>876.9668757302917</v>
+        <v>626.3699517193775</v>
       </c>
       <c r="Y27" t="n">
-        <v>717.5649160941217</v>
+        <v>466.9679920832075</v>
       </c>
     </row>
     <row r="28">
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>37.74400473526219</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="C28" t="n">
-        <v>37.74400473526219</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="D28" t="n">
-        <v>37.74400473526219</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="E28" t="n">
-        <v>37.74400473526219</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="F28" t="n">
-        <v>37.74400473526219</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="G28" t="n">
-        <v>37.74400473526219</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="H28" t="n">
-        <v>37.74400473526219</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="I28" t="n">
-        <v>37.74400473526219</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="J28" t="n">
         <v>56.4452522174457</v>
@@ -6411,25 +6411,25 @@
         <v>578.8559946720579</v>
       </c>
       <c r="S28" t="n">
-        <v>555.7431982281099</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="T28" t="n">
-        <v>320.4873493363945</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="U28" t="n">
-        <v>37.74400473526219</v>
+        <v>296.1126500709257</v>
       </c>
       <c r="V28" t="n">
-        <v>37.74400473526219</v>
+        <v>296.1126500709257</v>
       </c>
       <c r="W28" t="n">
-        <v>37.74400473526219</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="X28" t="n">
-        <v>37.74400473526219</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="Y28" t="n">
-        <v>37.74400473526219</v>
+        <v>37.7440047352622</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1264.577510238774</v>
+        <v>863.2383466885142</v>
       </c>
       <c r="C29" t="n">
-        <v>1264.577510238774</v>
+        <v>863.2383466885142</v>
       </c>
       <c r="D29" t="n">
-        <v>1264.577510238774</v>
+        <v>458.7744167815746</v>
       </c>
       <c r="E29" t="n">
-        <v>850.2372947556712</v>
+        <v>458.7744167815746</v>
       </c>
       <c r="F29" t="n">
-        <v>429.2068827093588</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="G29" t="n">
         <v>37.7440047352622</v>
@@ -6466,19 +6466,19 @@
         <v>151.4749218512231</v>
       </c>
       <c r="K29" t="n">
-        <v>342.4771847987906</v>
+        <v>342.4771847987904</v>
       </c>
       <c r="L29" t="n">
-        <v>594.37759511313</v>
+        <v>594.3775951131297</v>
       </c>
       <c r="M29" t="n">
-        <v>887.4914597655645</v>
+        <v>887.4914597655641</v>
       </c>
       <c r="N29" t="n">
         <v>1187.216805582613</v>
       </c>
       <c r="O29" t="n">
-        <v>1464.838169622267</v>
+        <v>1464.838169622266</v>
       </c>
       <c r="P29" t="n">
         <v>1687.808675484973</v>
@@ -6490,25 +6490,25 @@
         <v>1887.20023676311</v>
       </c>
       <c r="S29" t="n">
-        <v>1887.20023676311</v>
+        <v>1802.959711252748</v>
       </c>
       <c r="T29" t="n">
-        <v>1674.798689903264</v>
+        <v>1590.558164392902</v>
       </c>
       <c r="U29" t="n">
-        <v>1674.798689903264</v>
+        <v>1590.558164392902</v>
       </c>
       <c r="V29" t="n">
-        <v>1674.798689903264</v>
+        <v>1590.558164392902</v>
       </c>
       <c r="W29" t="n">
-        <v>1674.798689903264</v>
+        <v>1206.797863528071</v>
       </c>
       <c r="X29" t="n">
-        <v>1674.798689903264</v>
+        <v>1206.797863528071</v>
       </c>
       <c r="Y29" t="n">
-        <v>1674.798689903264</v>
+        <v>1206.797863528071</v>
       </c>
     </row>
     <row r="30">
@@ -6518,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>518.0889295920915</v>
+        <v>503.387801622348</v>
       </c>
       <c r="C30" t="n">
-        <v>384.0938583410372</v>
+        <v>369.3927303712937</v>
       </c>
       <c r="D30" t="n">
-        <v>267.1967005604296</v>
+        <v>252.4955725906861</v>
       </c>
       <c r="E30" t="n">
-        <v>146.7038845527576</v>
+        <v>252.4955725906861</v>
       </c>
       <c r="F30" t="n">
-        <v>37.7440047352622</v>
+        <v>143.5356927731907</v>
       </c>
       <c r="G30" t="n">
         <v>37.7440047352622</v>
@@ -6569,25 +6569,25 @@
         <v>1426.912595986079</v>
       </c>
       <c r="S30" t="n">
-        <v>1426.912595986079</v>
+        <v>1341.182798307179</v>
       </c>
       <c r="T30" t="n">
-        <v>1426.912595986079</v>
+        <v>1186.671426824303</v>
       </c>
       <c r="U30" t="n">
-        <v>1280.761566360006</v>
+        <v>989.3994596893464</v>
       </c>
       <c r="V30" t="n">
-        <v>1067.05003935304</v>
+        <v>775.6879326823802</v>
       </c>
       <c r="W30" t="n">
-        <v>853.8168710893688</v>
+        <v>775.6879326823802</v>
       </c>
       <c r="X30" t="n">
-        <v>677.4908892282615</v>
+        <v>643.6908342579346</v>
       </c>
       <c r="Y30" t="n">
-        <v>518.0889295920915</v>
+        <v>643.6908342579346</v>
       </c>
     </row>
     <row r="31">
@@ -6651,19 +6651,19 @@
         <v>578.8559946720579</v>
       </c>
       <c r="T31" t="n">
-        <v>578.8559946720579</v>
+        <v>343.6001457803425</v>
       </c>
       <c r="U31" t="n">
-        <v>296.1126500709257</v>
+        <v>60.85680117921021</v>
       </c>
       <c r="V31" t="n">
-        <v>296.1126500709257</v>
+        <v>60.85680117921021</v>
       </c>
       <c r="W31" t="n">
-        <v>296.1126500709257</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="X31" t="n">
-        <v>57.76878793060905</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="Y31" t="n">
         <v>37.7440047352622</v>
@@ -6676,40 +6676,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>684.3195305214506</v>
+        <v>806.1544656970232</v>
       </c>
       <c r="C32" t="n">
-        <v>274.1949398347207</v>
+        <v>806.1544656970232</v>
       </c>
       <c r="D32" t="n">
-        <v>274.1949398347207</v>
+        <v>806.1544656970232</v>
       </c>
       <c r="E32" t="n">
-        <v>274.1949398347207</v>
+        <v>391.8142502139199</v>
       </c>
       <c r="F32" t="n">
-        <v>274.1949398347207</v>
+        <v>325.7136527572681</v>
       </c>
       <c r="G32" t="n">
-        <v>37.74400473526219</v>
+        <v>325.7136527572681</v>
       </c>
       <c r="H32" t="n">
-        <v>37.74400473526219</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="I32" t="n">
-        <v>37.74400473526219</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="J32" t="n">
-        <v>151.4749218512229</v>
+        <v>151.4749218512231</v>
       </c>
       <c r="K32" t="n">
         <v>342.4771847987904</v>
       </c>
       <c r="L32" t="n">
-        <v>594.3775951131298</v>
+        <v>594.3775951131297</v>
       </c>
       <c r="M32" t="n">
-        <v>887.4914597655643</v>
+        <v>887.4914597655641</v>
       </c>
       <c r="N32" t="n">
         <v>1187.216805582613</v>
@@ -6721,31 +6721,31 @@
         <v>1687.808675484973</v>
       </c>
       <c r="Q32" t="n">
-        <v>1835.740277181654</v>
+        <v>1835.740277181655</v>
       </c>
       <c r="R32" t="n">
         <v>1887.20023676311</v>
       </c>
       <c r="S32" t="n">
-        <v>1887.20023676311</v>
+        <v>1802.959711252748</v>
       </c>
       <c r="T32" t="n">
-        <v>1674.798689903263</v>
+        <v>1590.558164392902</v>
       </c>
       <c r="U32" t="n">
-        <v>1417.917386049801</v>
+        <v>1590.558164392902</v>
       </c>
       <c r="V32" t="n">
-        <v>1068.079831386282</v>
+        <v>1590.558164392902</v>
       </c>
       <c r="W32" t="n">
-        <v>684.3195305214506</v>
+        <v>1206.797863528071</v>
       </c>
       <c r="X32" t="n">
-        <v>684.3195305214506</v>
+        <v>806.1544656970232</v>
       </c>
       <c r="Y32" t="n">
-        <v>684.3195305214506</v>
+        <v>806.1544656970232</v>
       </c>
     </row>
     <row r="33">
@@ -6755,31 +6755,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>518.0889295920915</v>
+        <v>683.0535714964635</v>
       </c>
       <c r="C33" t="n">
-        <v>384.0938583410372</v>
+        <v>549.0585002454092</v>
       </c>
       <c r="D33" t="n">
-        <v>267.1967005604296</v>
+        <v>432.1613424648016</v>
       </c>
       <c r="E33" t="n">
-        <v>146.7038845527576</v>
+        <v>311.6685264571296</v>
       </c>
       <c r="F33" t="n">
-        <v>37.74400473526219</v>
+        <v>202.7086466396342</v>
       </c>
       <c r="G33" t="n">
-        <v>37.74400473526219</v>
+        <v>96.91695860170569</v>
       </c>
       <c r="H33" t="n">
-        <v>37.74400473526219</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="I33" t="n">
-        <v>38.28095199337145</v>
+        <v>38.28095199337146</v>
       </c>
       <c r="J33" t="n">
-        <v>98.39707907527368</v>
+        <v>98.39707907527369</v>
       </c>
       <c r="K33" t="n">
         <v>232.7978194276822</v>
@@ -6812,19 +6812,19 @@
         <v>1426.912595986079</v>
       </c>
       <c r="U33" t="n">
-        <v>1280.761566360006</v>
+        <v>1426.912595986079</v>
       </c>
       <c r="V33" t="n">
-        <v>1067.05003935304</v>
+        <v>1213.201068979113</v>
       </c>
       <c r="W33" t="n">
-        <v>853.8168710893688</v>
+        <v>999.9679007154415</v>
       </c>
       <c r="X33" t="n">
-        <v>677.4908892282615</v>
+        <v>823.6419188543343</v>
       </c>
       <c r="Y33" t="n">
-        <v>518.0889295920915</v>
+        <v>823.3566041320502</v>
       </c>
     </row>
     <row r="34">
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>524.3951366515232</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="C34" t="n">
-        <v>524.3951366515232</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="D34" t="n">
-        <v>364.9004919744332</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="E34" t="n">
-        <v>203.9896768427527</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="F34" t="n">
-        <v>203.9896768427527</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="G34" t="n">
-        <v>37.74400473526219</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="H34" t="n">
-        <v>37.74400473526219</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="I34" t="n">
-        <v>37.74400473526219</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="J34" t="n">
         <v>56.4452522174457</v>
@@ -6882,28 +6882,28 @@
         <v>578.8559946720579</v>
       </c>
       <c r="R34" t="n">
-        <v>538.7590946257694</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="S34" t="n">
-        <v>538.7590946257694</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="T34" t="n">
-        <v>538.7590946257694</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="U34" t="n">
-        <v>524.3951366515232</v>
+        <v>296.1126500709257</v>
       </c>
       <c r="V34" t="n">
-        <v>524.3951366515232</v>
+        <v>296.1126500709257</v>
       </c>
       <c r="W34" t="n">
-        <v>524.3951366515232</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="X34" t="n">
-        <v>524.3951366515232</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="Y34" t="n">
-        <v>524.3951366515232</v>
+        <v>37.7440047352622</v>
       </c>
     </row>
     <row r="35">
@@ -6913,52 +6913,52 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>148.336488791651</v>
+        <v>1590.558164392902</v>
       </c>
       <c r="C35" t="n">
-        <v>148.336488791651</v>
+        <v>1180.433573706172</v>
       </c>
       <c r="D35" t="n">
-        <v>37.7440047352622</v>
+        <v>1161.084280286684</v>
       </c>
       <c r="E35" t="n">
-        <v>37.7440047352622</v>
+        <v>746.7440648035805</v>
       </c>
       <c r="F35" t="n">
-        <v>37.7440047352622</v>
+        <v>325.7136527572681</v>
       </c>
       <c r="G35" t="n">
-        <v>37.7440047352622</v>
+        <v>325.7136527572681</v>
       </c>
       <c r="H35" t="n">
-        <v>37.7440047352622</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="I35" t="n">
-        <v>37.74400473526221</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="J35" t="n">
-        <v>151.474921851223</v>
+        <v>151.4749218512231</v>
       </c>
       <c r="K35" t="n">
-        <v>342.4771847987906</v>
+        <v>342.4771847987903</v>
       </c>
       <c r="L35" t="n">
-        <v>594.3775951131302</v>
+        <v>594.3775951131297</v>
       </c>
       <c r="M35" t="n">
-        <v>887.4914597655646</v>
+        <v>887.4914597655641</v>
       </c>
       <c r="N35" t="n">
-        <v>1187.216805582614</v>
+        <v>1187.216805582613</v>
       </c>
       <c r="O35" t="n">
-        <v>1464.838169622267</v>
+        <v>1464.838169622266</v>
       </c>
       <c r="P35" t="n">
         <v>1687.808675484973</v>
       </c>
       <c r="Q35" t="n">
-        <v>1835.740277181655</v>
+        <v>1835.740277181654</v>
       </c>
       <c r="R35" t="n">
         <v>1887.20023676311</v>
@@ -6970,19 +6970,19 @@
         <v>1590.558164392902</v>
       </c>
       <c r="U35" t="n">
-        <v>1333.67686053944</v>
+        <v>1590.558164392902</v>
       </c>
       <c r="V35" t="n">
-        <v>1333.67686053944</v>
+        <v>1590.558164392902</v>
       </c>
       <c r="W35" t="n">
-        <v>949.9165596746084</v>
+        <v>1590.558164392902</v>
       </c>
       <c r="X35" t="n">
-        <v>549.273161843561</v>
+        <v>1590.558164392902</v>
       </c>
       <c r="Y35" t="n">
-        <v>148.336488791651</v>
+        <v>1590.558164392902</v>
       </c>
     </row>
     <row r="36">
@@ -6992,31 +6992,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>518.0889295920915</v>
+        <v>172.153587964745</v>
       </c>
       <c r="C36" t="n">
-        <v>384.0938583410372</v>
+        <v>38.15851671369069</v>
       </c>
       <c r="D36" t="n">
-        <v>267.1967005604296</v>
+        <v>38.15851671369069</v>
       </c>
       <c r="E36" t="n">
-        <v>146.7038845527576</v>
+        <v>38.15851671369069</v>
       </c>
       <c r="F36" t="n">
-        <v>37.7440047352622</v>
+        <v>38.15851671369069</v>
       </c>
       <c r="G36" t="n">
-        <v>37.7440047352622</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="H36" t="n">
-        <v>37.7440047352622</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="I36" t="n">
-        <v>38.28095199337146</v>
+        <v>38.28095199337145</v>
       </c>
       <c r="J36" t="n">
-        <v>98.39707907527369</v>
+        <v>98.39707907527368</v>
       </c>
       <c r="K36" t="n">
         <v>232.7978194276822</v>
@@ -7046,22 +7046,22 @@
         <v>1426.912595986079</v>
       </c>
       <c r="T36" t="n">
-        <v>1426.912595986079</v>
+        <v>1272.401224503203</v>
       </c>
       <c r="U36" t="n">
-        <v>1421.064598995593</v>
+        <v>1075.129257368246</v>
       </c>
       <c r="V36" t="n">
-        <v>1207.353071988627</v>
+        <v>861.4177303612801</v>
       </c>
       <c r="W36" t="n">
-        <v>994.1199037249553</v>
+        <v>648.1845620976088</v>
       </c>
       <c r="X36" t="n">
-        <v>817.7939218638481</v>
+        <v>471.8585802365016</v>
       </c>
       <c r="Y36" t="n">
-        <v>658.3919622276782</v>
+        <v>312.4566206003316</v>
       </c>
     </row>
     <row r="37">
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>538.7590946257694</v>
+        <v>197.2386494123522</v>
       </c>
       <c r="C37" t="n">
-        <v>522.7805904334414</v>
+        <v>197.2386494123522</v>
       </c>
       <c r="D37" t="n">
-        <v>363.2859457563515</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="E37" t="n">
-        <v>202.3751306246709</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="F37" t="n">
-        <v>37.7440047352622</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="G37" t="n">
-        <v>37.7440047352622</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="H37" t="n">
-        <v>37.7440047352622</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="I37" t="n">
-        <v>37.7440047352622</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="J37" t="n">
         <v>56.4452522174457</v>
@@ -7119,28 +7119,28 @@
         <v>578.8559946720579</v>
       </c>
       <c r="R37" t="n">
-        <v>538.7590946257694</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="S37" t="n">
-        <v>538.7590946257694</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="T37" t="n">
-        <v>538.7590946257694</v>
+        <v>471.1243944728303</v>
       </c>
       <c r="U37" t="n">
-        <v>538.7590946257694</v>
+        <v>471.1243944728303</v>
       </c>
       <c r="V37" t="n">
-        <v>538.7590946257694</v>
+        <v>197.2386494123522</v>
       </c>
       <c r="W37" t="n">
-        <v>538.7590946257694</v>
+        <v>197.2386494123522</v>
       </c>
       <c r="X37" t="n">
-        <v>538.7590946257694</v>
+        <v>197.2386494123522</v>
       </c>
       <c r="Y37" t="n">
-        <v>538.7590946257694</v>
+        <v>197.2386494123522</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>325.5614315521435</v>
+        <v>1392.738531588259</v>
       </c>
       <c r="C38" t="n">
-        <v>325.5614315521435</v>
+        <v>982.6139409015292</v>
       </c>
       <c r="D38" t="n">
-        <v>325.5614315521435</v>
+        <v>982.6139409015292</v>
       </c>
       <c r="E38" t="n">
-        <v>325.5614315521435</v>
+        <v>568.2737254184259</v>
       </c>
       <c r="F38" t="n">
-        <v>325.5614315521435</v>
+        <v>147.2433133721134</v>
       </c>
       <c r="G38" t="n">
-        <v>325.5614315521435</v>
+        <v>147.2433133721134</v>
       </c>
       <c r="H38" t="n">
-        <v>37.74400473526219</v>
+        <v>37.74400473526221</v>
       </c>
       <c r="I38" t="n">
-        <v>37.74400473526219</v>
+        <v>37.74400473526271</v>
       </c>
       <c r="J38" t="n">
-        <v>151.4749218512231</v>
+        <v>151.4749218512236</v>
       </c>
       <c r="K38" t="n">
-        <v>342.4771847987903</v>
+        <v>342.4771847987909</v>
       </c>
       <c r="L38" t="n">
-        <v>594.3775951131297</v>
+        <v>594.3775951131302</v>
       </c>
       <c r="M38" t="n">
-        <v>887.4914597655641</v>
+        <v>887.4914597655645</v>
       </c>
       <c r="N38" t="n">
-        <v>1187.216805582613</v>
+        <v>1187.216805582614</v>
       </c>
       <c r="O38" t="n">
-        <v>1464.838169622266</v>
+        <v>1464.838169622267</v>
       </c>
       <c r="P38" t="n">
         <v>1687.808675484973</v>
       </c>
       <c r="Q38" t="n">
-        <v>1835.740277181654</v>
+        <v>1835.740277181655</v>
       </c>
       <c r="R38" t="n">
-        <v>1887.20023676311</v>
+        <v>1887.200236763111</v>
       </c>
       <c r="S38" t="n">
-        <v>1887.20023676311</v>
+        <v>1802.959711252749</v>
       </c>
       <c r="T38" t="n">
-        <v>1887.20023676311</v>
+        <v>1802.959711252749</v>
       </c>
       <c r="U38" t="n">
-        <v>1887.20023676311</v>
+        <v>1802.959711252749</v>
       </c>
       <c r="V38" t="n">
-        <v>1537.36268209959</v>
+        <v>1802.959711252749</v>
       </c>
       <c r="W38" t="n">
-        <v>1537.36268209959</v>
+        <v>1802.959711252749</v>
       </c>
       <c r="X38" t="n">
-        <v>1136.719284268543</v>
+        <v>1802.959711252749</v>
       </c>
       <c r="Y38" t="n">
-        <v>735.782611216633</v>
+        <v>1802.959711252749</v>
       </c>
     </row>
     <row r="39">
@@ -7229,31 +7229,31 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>432.1613424648016</v>
+        <v>172.153587964745</v>
       </c>
       <c r="C39" t="n">
-        <v>432.1613424648016</v>
+        <v>172.153587964745</v>
       </c>
       <c r="D39" t="n">
-        <v>432.1613424648016</v>
+        <v>172.153587964745</v>
       </c>
       <c r="E39" t="n">
-        <v>311.6685264571296</v>
+        <v>172.153587964745</v>
       </c>
       <c r="F39" t="n">
-        <v>202.7086466396342</v>
+        <v>143.5356927731907</v>
       </c>
       <c r="G39" t="n">
-        <v>96.91695860170567</v>
+        <v>37.74400473526221</v>
       </c>
       <c r="H39" t="n">
-        <v>37.74400473526219</v>
+        <v>37.74400473526221</v>
       </c>
       <c r="I39" t="n">
-        <v>38.28095199337145</v>
+        <v>38.28095199337147</v>
       </c>
       <c r="J39" t="n">
-        <v>98.39707907527368</v>
+        <v>98.39707907527369</v>
       </c>
       <c r="K39" t="n">
         <v>232.7978194276822</v>
@@ -7280,25 +7280,25 @@
         <v>1426.912595986079</v>
       </c>
       <c r="S39" t="n">
-        <v>1387.215358214379</v>
+        <v>1426.912595986079</v>
       </c>
       <c r="T39" t="n">
-        <v>1232.703986731503</v>
+        <v>1272.401224503203</v>
       </c>
       <c r="U39" t="n">
-        <v>1035.432019596546</v>
+        <v>1075.129257368246</v>
       </c>
       <c r="V39" t="n">
-        <v>821.72049258958</v>
+        <v>861.4177303612801</v>
       </c>
       <c r="W39" t="n">
-        <v>608.4873243259087</v>
+        <v>648.1845620976088</v>
       </c>
       <c r="X39" t="n">
-        <v>432.1613424648016</v>
+        <v>471.8585802365016</v>
       </c>
       <c r="Y39" t="n">
-        <v>432.1613424648016</v>
+        <v>312.4566206003316</v>
       </c>
     </row>
     <row r="40">
@@ -7308,37 +7308,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>296.1126500709257</v>
+        <v>361.8697753017609</v>
       </c>
       <c r="C40" t="n">
-        <v>296.1126500709257</v>
+        <v>361.8697753017609</v>
       </c>
       <c r="D40" t="n">
-        <v>296.1126500709257</v>
+        <v>202.3751306246709</v>
       </c>
       <c r="E40" t="n">
         <v>202.3751306246709</v>
       </c>
       <c r="F40" t="n">
-        <v>37.74400473526219</v>
+        <v>37.74400473526221</v>
       </c>
       <c r="G40" t="n">
-        <v>37.74400473526219</v>
+        <v>37.74400473526221</v>
       </c>
       <c r="H40" t="n">
-        <v>37.74400473526219</v>
+        <v>37.74400473526221</v>
       </c>
       <c r="I40" t="n">
-        <v>37.74400473526219</v>
+        <v>37.74400473526221</v>
       </c>
       <c r="J40" t="n">
-        <v>56.4452522174457</v>
+        <v>56.44525221744571</v>
       </c>
       <c r="K40" t="n">
-        <v>119.1245341786054</v>
+        <v>119.1245341786055</v>
       </c>
       <c r="L40" t="n">
-        <v>211.444283436796</v>
+        <v>211.4442834367961</v>
       </c>
       <c r="M40" t="n">
         <v>310.1021194663056</v>
@@ -7365,19 +7365,19 @@
         <v>578.8559946720579</v>
       </c>
       <c r="U40" t="n">
-        <v>296.1126500709257</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="V40" t="n">
-        <v>296.1126500709257</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="W40" t="n">
-        <v>296.1126500709257</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="X40" t="n">
-        <v>296.1126500709257</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="Y40" t="n">
-        <v>296.1126500709257</v>
+        <v>361.8697753017609</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>452.0842202183655</v>
+        <v>746.7440648035805</v>
       </c>
       <c r="C41" t="n">
-        <v>452.0842202183655</v>
+        <v>746.7440648035805</v>
       </c>
       <c r="D41" t="n">
-        <v>452.0842202183655</v>
+        <v>746.7440648035805</v>
       </c>
       <c r="E41" t="n">
-        <v>37.74400473526219</v>
+        <v>746.7440648035805</v>
       </c>
       <c r="F41" t="n">
-        <v>37.74400473526219</v>
+        <v>325.7136527572681</v>
       </c>
       <c r="G41" t="n">
-        <v>37.74400473526219</v>
+        <v>325.7136527572681</v>
       </c>
       <c r="H41" t="n">
         <v>37.74400473526219</v>
@@ -7411,7 +7411,7 @@
         <v>37.74400473526219</v>
       </c>
       <c r="J41" t="n">
-        <v>151.474921851223</v>
+        <v>151.4749218512231</v>
       </c>
       <c r="K41" t="n">
         <v>342.4771847987903</v>
@@ -7420,13 +7420,13 @@
         <v>594.3775951131297</v>
       </c>
       <c r="M41" t="n">
-        <v>887.4914597655643</v>
+        <v>887.4914597655641</v>
       </c>
       <c r="N41" t="n">
         <v>1187.216805582613</v>
       </c>
       <c r="O41" t="n">
-        <v>1464.838169622267</v>
+        <v>1464.838169622266</v>
       </c>
       <c r="P41" t="n">
         <v>1687.808675484973</v>
@@ -7438,25 +7438,25 @@
         <v>1887.20023676311</v>
       </c>
       <c r="S41" t="n">
-        <v>1802.959711252748</v>
+        <v>1887.20023676311</v>
       </c>
       <c r="T41" t="n">
-        <v>1590.558164392902</v>
+        <v>1737.223224185394</v>
       </c>
       <c r="U41" t="n">
-        <v>1590.558164392902</v>
+        <v>1480.341920331931</v>
       </c>
       <c r="V41" t="n">
-        <v>1240.720609729382</v>
+        <v>1130.504365668412</v>
       </c>
       <c r="W41" t="n">
-        <v>856.9603088645508</v>
+        <v>746.7440648035805</v>
       </c>
       <c r="X41" t="n">
-        <v>456.3169110335033</v>
+        <v>746.7440648035805</v>
       </c>
       <c r="Y41" t="n">
-        <v>452.0842202183655</v>
+        <v>746.7440648035805</v>
       </c>
     </row>
     <row r="42">
@@ -7466,16 +7466,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>326.6649594476208</v>
+        <v>518.0889295920915</v>
       </c>
       <c r="C42" t="n">
-        <v>192.6698881965665</v>
+        <v>384.0938583410372</v>
       </c>
       <c r="D42" t="n">
-        <v>75.77273041595897</v>
+        <v>267.1967005604296</v>
       </c>
       <c r="E42" t="n">
-        <v>37.74400473526219</v>
+        <v>146.7038845527576</v>
       </c>
       <c r="F42" t="n">
         <v>37.74400473526219</v>
@@ -7517,25 +7517,25 @@
         <v>1426.912595986079</v>
       </c>
       <c r="S42" t="n">
-        <v>1426.912595986079</v>
+        <v>1421.064598995593</v>
       </c>
       <c r="T42" t="n">
-        <v>1426.912595986079</v>
+        <v>1421.064598995593</v>
       </c>
       <c r="U42" t="n">
-        <v>1229.640628851122</v>
+        <v>1421.064598995593</v>
       </c>
       <c r="V42" t="n">
-        <v>1015.929101844156</v>
+        <v>1207.353071988627</v>
       </c>
       <c r="W42" t="n">
-        <v>802.6959335804846</v>
+        <v>994.1199037249553</v>
       </c>
       <c r="X42" t="n">
-        <v>626.3699517193775</v>
+        <v>817.7939218638481</v>
       </c>
       <c r="Y42" t="n">
-        <v>466.9679920832075</v>
+        <v>658.3919622276782</v>
       </c>
     </row>
     <row r="43">
@@ -7545,10 +7545,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>197.2386494123522</v>
+        <v>118.8644471691072</v>
       </c>
       <c r="C43" t="n">
-        <v>197.2386494123522</v>
+        <v>118.8644471691072</v>
       </c>
       <c r="D43" t="n">
         <v>37.74400473526219</v>
@@ -7599,22 +7599,22 @@
         <v>578.8559946720579</v>
       </c>
       <c r="T43" t="n">
-        <v>578.8559946720579</v>
+        <v>343.6001457803425</v>
       </c>
       <c r="U43" t="n">
-        <v>578.8559946720579</v>
+        <v>343.6001457803425</v>
       </c>
       <c r="V43" t="n">
-        <v>578.8559946720579</v>
+        <v>343.6001457803425</v>
       </c>
       <c r="W43" t="n">
-        <v>578.8559946720579</v>
+        <v>343.6001457803425</v>
       </c>
       <c r="X43" t="n">
-        <v>578.8559946720579</v>
+        <v>343.6001457803425</v>
       </c>
       <c r="Y43" t="n">
-        <v>384.9383558063965</v>
+        <v>118.8644471691072</v>
       </c>
     </row>
     <row r="44">
@@ -7624,16 +7624,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1016.980712997891</v>
+        <v>1180.336984728412</v>
       </c>
       <c r="C44" t="n">
-        <v>863.2383466885142</v>
+        <v>1180.336984728412</v>
       </c>
       <c r="D44" t="n">
-        <v>458.7744167815746</v>
+        <v>775.8730548214726</v>
       </c>
       <c r="E44" t="n">
-        <v>458.7744167815746</v>
+        <v>361.5328393383693</v>
       </c>
       <c r="F44" t="n">
         <v>37.74400473526219</v>
@@ -7675,25 +7675,25 @@
         <v>1887.20023676311</v>
       </c>
       <c r="S44" t="n">
-        <v>1887.20023676311</v>
+        <v>1802.959711252748</v>
       </c>
       <c r="T44" t="n">
-        <v>1674.798689903263</v>
+        <v>1590.558164392902</v>
       </c>
       <c r="U44" t="n">
-        <v>1417.917386049801</v>
+        <v>1590.558164392902</v>
       </c>
       <c r="V44" t="n">
-        <v>1417.917386049801</v>
+        <v>1590.558164392902</v>
       </c>
       <c r="W44" t="n">
-        <v>1417.917386049801</v>
+        <v>1590.558164392902</v>
       </c>
       <c r="X44" t="n">
-        <v>1417.917386049801</v>
+        <v>1590.558164392902</v>
       </c>
       <c r="Y44" t="n">
-        <v>1016.980712997891</v>
+        <v>1590.558164392902</v>
       </c>
     </row>
     <row r="45">
@@ -7703,19 +7703,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>158.2368207429342</v>
+        <v>623.88061763002</v>
       </c>
       <c r="C45" t="n">
-        <v>158.2368207429342</v>
+        <v>489.8855463789657</v>
       </c>
       <c r="D45" t="n">
-        <v>158.2368207429342</v>
+        <v>372.9883885983581</v>
       </c>
       <c r="E45" t="n">
-        <v>37.74400473526219</v>
+        <v>252.4955725906861</v>
       </c>
       <c r="F45" t="n">
-        <v>37.74400473526219</v>
+        <v>143.5356927731907</v>
       </c>
       <c r="G45" t="n">
         <v>37.74400473526219</v>
@@ -7757,22 +7757,22 @@
         <v>1341.182798307179</v>
       </c>
       <c r="T45" t="n">
-        <v>1186.671426824303</v>
+        <v>1341.182798307179</v>
       </c>
       <c r="U45" t="n">
-        <v>989.3994596893464</v>
+        <v>1143.910831172222</v>
       </c>
       <c r="V45" t="n">
-        <v>775.6879326823802</v>
+        <v>930.1993041652559</v>
       </c>
       <c r="W45" t="n">
-        <v>562.4547644187089</v>
+        <v>783.2825772661899</v>
       </c>
       <c r="X45" t="n">
-        <v>386.1287825576017</v>
+        <v>783.2825772661899</v>
       </c>
       <c r="Y45" t="n">
-        <v>226.7268229214317</v>
+        <v>623.88061763002</v>
       </c>
     </row>
     <row r="46">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>203.9896768427527</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="C46" t="n">
-        <v>203.9896768427527</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="D46" t="n">
-        <v>203.9896768427527</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="E46" t="n">
-        <v>203.9896768427527</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="F46" t="n">
-        <v>203.9896768427527</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="G46" t="n">
         <v>37.74400473526219</v>
@@ -7830,28 +7830,28 @@
         <v>578.8559946720579</v>
       </c>
       <c r="R46" t="n">
-        <v>538.7590946257694</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="S46" t="n">
-        <v>538.7590946257694</v>
+        <v>409.9737380035501</v>
       </c>
       <c r="T46" t="n">
-        <v>538.7590946257694</v>
+        <v>409.9737380035501</v>
       </c>
       <c r="U46" t="n">
-        <v>483.0593413338783</v>
+        <v>409.9737380035501</v>
       </c>
       <c r="V46" t="n">
-        <v>483.0593413338783</v>
+        <v>136.087992943072</v>
       </c>
       <c r="W46" t="n">
-        <v>203.9896768427527</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="X46" t="n">
-        <v>203.9896768427527</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="Y46" t="n">
-        <v>203.9896768427527</v>
+        <v>37.74400473526219</v>
       </c>
     </row>
   </sheetData>
@@ -8765,7 +8765,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>12.1580467813794</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>8.239637534552763</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8847,7 +8847,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>2.974196389982041</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -8868,7 +8868,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>3.965237124812042</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9002,7 +9002,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>12.15804678137941</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>8.23963753455277</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9084,7 +9084,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>2.974196389982048</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -9105,7 +9105,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>3.965237124812049</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9239,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>12.15804678137939</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>8.239637534552735</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9321,7 +9321,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>2.974196389982012</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -9342,7 +9342,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>3.965237124812006</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9476,7 +9476,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>12.15804678137939</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>8.239637534552735</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9558,7 +9558,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>2.974196389982012</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -9579,7 +9579,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>3.965237124812006</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -22546,22 +22546,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>6.11896786784456</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>6.023344779862555</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.4192906078700389</v>
       </c>
       <c r="E2" t="n">
-        <v>1.35962471204086</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="F2" t="n">
-        <v>7.982919309617918</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>4.10970927713285</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -23269,16 +23269,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
-        <v>165.5584497936143</v>
+        <v>155.1794741108944</v>
       </c>
       <c r="G11" t="n">
-        <v>151.8853729396962</v>
+        <v>141.4723488539136</v>
       </c>
       <c r="H11" t="n">
-        <v>41.23763201533215</v>
+        <v>292.1505919397025</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>26.57930808648221</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,19 +23308,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>99.8844186543057</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>213.4445646876526</v>
+        <v>74.67799972890305</v>
       </c>
       <c r="U11" t="n">
-        <v>254.3703692075518</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>186.5033885188629</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
         <v>396.636963852737</v>
@@ -23336,10 +23336,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -23348,16 +23348,16 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G12" t="n">
-        <v>105.1208670346342</v>
+        <v>77.74105461020295</v>
       </c>
       <c r="H12" t="n">
-        <v>62.31975556173185</v>
+        <v>62.1438128479911</v>
       </c>
       <c r="I12" t="n">
-        <v>12.78527216869316</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,25 +23384,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>9.370720666121365</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>86.08787074275375</v>
+        <v>91.72425373621539</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>195.3247142976259</v>
+        <v>195.3235157777776</v>
       </c>
       <c r="V12" t="n">
         <v>211.5744117368965</v>
       </c>
       <c r="W12" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>157.8079400398083</v>
@@ -23430,16 +23430,16 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>164.9077435663704</v>
+        <v>164.8924706249146</v>
       </c>
       <c r="H13" t="n">
-        <v>7.691866750880251</v>
+        <v>142.017404506745</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>94.57024079724738</v>
       </c>
       <c r="J13" t="n">
-        <v>4.053993350902452</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,22 +23460,22 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>5.244137704346301</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>54.28789811906633</v>
+        <v>53.60117113324758</v>
       </c>
       <c r="S13" t="n">
-        <v>172.8490752015807</v>
+        <v>172.5829094854839</v>
       </c>
       <c r="T13" t="n">
-        <v>234.2899108080598</v>
+        <v>234.2246536945671</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9336126922094</v>
+        <v>279.9327796226754</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>29.12804707126332</v>
       </c>
       <c r="W13" t="n">
         <v>276.2789678462144</v>
@@ -23500,22 +23500,22 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
-        <v>149.1576324756351</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
-        <v>188.8855448453998</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>403.1470310719311</v>
+        <v>403.1129826688685</v>
       </c>
       <c r="H14" t="n">
-        <v>292.4992901475671</v>
+        <v>292.1505919397025</v>
       </c>
       <c r="I14" t="n">
-        <v>27.89195914555225</v>
+        <v>26.57930808648222</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,22 +23545,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>99.8844186543057</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>213.4445646876526</v>
+        <v>74.67799972890285</v>
       </c>
       <c r="U14" t="n">
-        <v>3.108711075316819</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>346.3391791168841</v>
+        <v>84.69854530192913</v>
       </c>
       <c r="W14" t="n">
-        <v>128.6610397239481</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
-        <v>396.636963852737</v>
+        <v>134.996330037782</v>
       </c>
       <c r="Y14" t="n">
         <v>396.9273063213908</v>
@@ -23582,19 +23582,19 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E15" t="n">
-        <v>105.7036877267002</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G15" t="n">
-        <v>105.1208670346342</v>
+        <v>105.102649532939</v>
       </c>
       <c r="H15" t="n">
-        <v>62.31975556173185</v>
+        <v>62.1438128479911</v>
       </c>
       <c r="I15" t="n">
-        <v>12.78527216869315</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,13 +23621,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>9.370720666121358</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>91.72425373621539</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>154.4530964828858</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -23636,13 +23636,13 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>157.8079400398083</v>
+        <v>147.8751020984639</v>
       </c>
     </row>
     <row r="16">
@@ -23664,19 +23664,19 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>164.9077435663704</v>
+        <v>164.8924706249146</v>
       </c>
       <c r="H16" t="n">
-        <v>7.691866750880223</v>
+        <v>142.017404506745</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>94.57024079724739</v>
       </c>
       <c r="J16" t="n">
-        <v>4.053993350902445</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,19 +23697,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>5.244137704346294</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>54.28789811906632</v>
+        <v>53.60117113324759</v>
       </c>
       <c r="S16" t="n">
-        <v>172.8490752015807</v>
+        <v>172.5829094854839</v>
       </c>
       <c r="T16" t="n">
-        <v>234.2899108080598</v>
+        <v>234.2246536945671</v>
       </c>
       <c r="U16" t="n">
-        <v>279.9336126922094</v>
+        <v>200.8987537145802</v>
       </c>
       <c r="V16" t="n">
         <v>271.1468876098733</v>
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>154.8573097356096</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
-        <v>149.157632475635</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
-        <v>158.9351551960372</v>
+        <v>148.556179513317</v>
       </c>
       <c r="F17" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>403.1470310719311</v>
+        <v>403.1129826688685</v>
       </c>
       <c r="H17" t="n">
-        <v>292.4992901475671</v>
+        <v>30.50995812474724</v>
       </c>
       <c r="I17" t="n">
-        <v>27.89195914555225</v>
+        <v>26.57930808648218</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,19 +23782,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>99.8844186543057</v>
+        <v>99.1085406695172</v>
       </c>
       <c r="T17" t="n">
-        <v>213.4445646876526</v>
+        <v>213.2955178032461</v>
       </c>
       <c r="U17" t="n">
-        <v>254.3703692075518</v>
+        <v>23.91457507109425</v>
       </c>
       <c r="V17" t="n">
-        <v>125.0279106340116</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
-        <v>379.9226978561831</v>
+        <v>118.2820640412279</v>
       </c>
       <c r="X17" t="n">
         <v>396.636963852737</v>
@@ -23816,22 +23816,22 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D18" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>119.2878878475953</v>
       </c>
       <c r="F18" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>105.1208670346342</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>62.31975556173185</v>
+        <v>62.1438128479911</v>
       </c>
       <c r="I18" t="n">
-        <v>12.78527216869315</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,19 +23858,19 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>9.370720666121358</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>89.64635544081892</v>
+        <v>24.35539877053843</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>154.4530964828858</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -23904,16 +23904,16 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>164.9077435663704</v>
+        <v>164.8924706249146</v>
       </c>
       <c r="H19" t="n">
-        <v>142.1531948407787</v>
+        <v>142.017404506745</v>
       </c>
       <c r="I19" t="n">
-        <v>95.02953980029801</v>
+        <v>94.57024079724738</v>
       </c>
       <c r="J19" t="n">
-        <v>4.053993350902445</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,25 +23934,25 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>5.244137704346294</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>54.28789811906632</v>
+        <v>53.60117113324756</v>
       </c>
       <c r="S19" t="n">
-        <v>172.8490752015807</v>
+        <v>172.5829094854839</v>
       </c>
       <c r="T19" t="n">
-        <v>234.2899108080598</v>
+        <v>234.2246536945671</v>
       </c>
       <c r="U19" t="n">
-        <v>50.44274480201288</v>
+        <v>279.9327796226754</v>
       </c>
       <c r="V19" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>34.26012730760411</v>
       </c>
       <c r="X19" t="n">
         <v>235.9604235189134</v>
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>406.1189678678446</v>
+        <v>144.4783340528892</v>
       </c>
       <c r="C20" t="n">
-        <v>406.0233447798626</v>
+        <v>144.3827109649072</v>
       </c>
       <c r="D20" t="n">
-        <v>149.1576324756351</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
-        <v>410.1968133282722</v>
+        <v>148.5561795133169</v>
       </c>
       <c r="F20" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>403.1470310719311</v>
+        <v>403.1129826688685</v>
       </c>
       <c r="H20" t="n">
-        <v>292.4992901475671</v>
+        <v>292.1505919397025</v>
       </c>
       <c r="I20" t="n">
-        <v>27.89195914555225</v>
+        <v>26.57930808648218</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,22 +24019,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>99.8844186543057</v>
+        <v>81.9509882085507</v>
       </c>
       <c r="T20" t="n">
-        <v>213.4445646876526</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>254.3703692075518</v>
+        <v>254.3676453353068</v>
       </c>
       <c r="V20" t="n">
-        <v>95.07752098464914</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
-        <v>128.6610397239481</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
-        <v>175.3256953698645</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
         <v>396.9273063213908</v>
@@ -24047,7 +24047,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>132.6551205385437</v>
@@ -24062,13 +24062,13 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G21" t="n">
-        <v>105.1208670346342</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>62.31975556173185</v>
+        <v>62.1438128479911</v>
       </c>
       <c r="I21" t="n">
-        <v>12.78527216869315</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,28 +24095,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>9.370720666121358</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>92.06263584007191</v>
+        <v>91.72425373621537</v>
       </c>
       <c r="T21" t="n">
-        <v>154.5265257989293</v>
+        <v>154.4530964828858</v>
       </c>
       <c r="U21" t="n">
-        <v>17.61991584431381</v>
+        <v>6.214195317102082</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y21" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24141,16 +24141,16 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.8924706249146</v>
       </c>
       <c r="H22" t="n">
-        <v>77.57007051695271</v>
+        <v>142.017404506745</v>
       </c>
       <c r="I22" t="n">
-        <v>95.02953980029801</v>
+        <v>94.57024079724738</v>
       </c>
       <c r="J22" t="n">
-        <v>4.053993350902445</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,19 +24171,19 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>5.244137704346294</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>54.28789811906632</v>
+        <v>53.60117113324756</v>
       </c>
       <c r="S22" t="n">
-        <v>172.8490752015807</v>
+        <v>172.5829094854839</v>
       </c>
       <c r="T22" t="n">
-        <v>234.2899108080598</v>
+        <v>234.2246536945671</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9336126922094</v>
+        <v>37.91393908406511</v>
       </c>
       <c r="V22" t="n">
         <v>271.1468876098733</v>
@@ -24205,16 +24205,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>406.1189678678446</v>
+        <v>172.0325421193802</v>
       </c>
       <c r="C23" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
         <v>416.8201079258493</v>
@@ -24223,7 +24223,7 @@
         <v>402.4235511641288</v>
       </c>
       <c r="H23" t="n">
-        <v>214.5060758447482</v>
+        <v>285.0899515417858</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24262,19 +24262,19 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>254.3124908149276</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="24">
@@ -24287,13 +24287,13 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>81.63944942370546</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>76.7977671519443</v>
       </c>
       <c r="F24" t="n">
         <v>107.8702810193205</v>
@@ -24338,7 +24338,7 @@
         <v>84.8724997021109</v>
       </c>
       <c r="T24" t="n">
-        <v>152.9662577680471</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -24353,7 +24353,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="25">
@@ -24426,13 +24426,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>20.49400896390753</v>
       </c>
       <c r="X25" t="n">
-        <v>202.6638062617296</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -24445,7 +24445,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
-        <v>388.5634738659946</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
         <v>400.41929060787</v>
@@ -24457,7 +24457,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>402.4235511641288</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>285.0899515417858</v>
@@ -24499,7 +24499,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>254.3124908149276</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24508,10 +24508,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>242.3488647437972</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="27">
@@ -24527,10 +24527,10 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>73.78154424022445</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -24539,7 +24539,7 @@
         <v>104.7337711575492</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>58.58122432777904</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -24575,16 +24575,16 @@
         <v>84.8724997021109</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>152.9662577680471</v>
       </c>
       <c r="U27" t="n">
-        <v>195.2992474636072</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>205.7579650752448</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -24651,10 +24651,10 @@
         <v>39.69593104582557</v>
       </c>
       <c r="S28" t="n">
-        <v>144.3117656223143</v>
+        <v>167.1934341018228</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>232.9032904027983</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>20.49400896390753</v>
       </c>
       <c r="X28" t="n">
         <v>235.9604235189134</v>
@@ -24679,22 +24679,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>65.99504619668375</v>
       </c>
       <c r="C29" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>14.8753019697732</v>
+        <v>402.4235511641288</v>
       </c>
       <c r="H29" t="n">
         <v>285.0899515417858</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.39812025525838</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24742,7 +24742,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W29" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>396.636963852737</v>
@@ -24758,7 +24758,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -24767,13 +24767,13 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>104.7337711575492</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>58.58122432777904</v>
@@ -24809,25 +24809,25 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>84.8724997021109</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>152.9662577680471</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>50.6097281337953</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>43.88559460229504</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="31">
@@ -24891,7 +24891,7 @@
         <v>167.1934341018228</v>
       </c>
       <c r="T31" t="n">
-        <v>232.9032904027983</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24900,13 +24900,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>253.3972993667058</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>202.6638062617295</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -24919,22 +24919,22 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D32" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>416.8201079258493</v>
+        <v>351.380516443764</v>
       </c>
       <c r="G32" t="n">
-        <v>168.3371254156648</v>
+        <v>402.4235511641288</v>
       </c>
       <c r="H32" t="n">
-        <v>285.0899515417858</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,22 +24967,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.39812025525838</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>254.3124908149276</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>396.9273063213908</v>
@@ -24995,7 +24995,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -25010,10 +25010,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>104.7337711575492</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>58.58122432777904</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -25052,7 +25052,7 @@
         <v>152.9662577680471</v>
       </c>
       <c r="U33" t="n">
-        <v>50.6097281337953</v>
+        <v>195.2992474636072</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -25064,7 +25064,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>157.525478464747</v>
       </c>
     </row>
     <row r="34">
@@ -25080,16 +25080,16 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5832153864156</v>
       </c>
       <c r="H34" t="n">
         <v>139.2678442953623</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>39.69593104582557</v>
       </c>
       <c r="S34" t="n">
         <v>167.1934341018228</v>
@@ -25131,13 +25131,13 @@
         <v>232.9032904027983</v>
       </c>
       <c r="U34" t="n">
-        <v>265.6955927606172</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>20.49400896390753</v>
       </c>
       <c r="X34" t="n">
         <v>235.9604235189134</v>
@@ -25156,22 +25156,22 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C35" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>290.9327313920451</v>
+        <v>381.2634901225771</v>
       </c>
       <c r="E35" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>402.4235511641288</v>
       </c>
       <c r="H35" t="n">
-        <v>285.0899515417858</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25210,19 +25210,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>254.3124908149276</v>
       </c>
       <c r="V35" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="36">
@@ -25238,16 +25238,16 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G36" t="n">
-        <v>104.7337711575492</v>
+        <v>104.323404298905</v>
       </c>
       <c r="H36" t="n">
         <v>58.58122432777904</v>
@@ -25286,10 +25286,10 @@
         <v>84.8724997021109</v>
       </c>
       <c r="T36" t="n">
-        <v>152.9662577680471</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>189.5097304430259</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -25314,16 +25314,16 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>153.5637195634959</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
         <v>164.5832153864156</v>
@@ -25359,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>39.69593104582557</v>
       </c>
       <c r="S37" t="n">
         <v>167.1934341018228</v>
       </c>
       <c r="T37" t="n">
-        <v>232.9032904027983</v>
+        <v>126.2490062055629</v>
       </c>
       <c r="U37" t="n">
         <v>279.9159111551209</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>276.2789678462144</v>
@@ -25393,22 +25393,22 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>402.4235511641288</v>
       </c>
       <c r="H38" t="n">
-        <v>0.150698993073263</v>
+        <v>176.685635991303</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.39812025525838</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>210.2775313912475</v>
@@ -25450,16 +25450,16 @@
         <v>254.3124908149276</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="39">
@@ -25469,7 +25469,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>132.6551205385437</v>
@@ -25478,16 +25478,16 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>79.53856477968172</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>58.58122432777904</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -25520,7 +25520,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>45.5722343081277</v>
+        <v>84.8724997021109</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -25538,7 +25538,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25554,10 +25554,10 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>66.50156272857153</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>232.9032904027983</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9159111551209</v>
       </c>
       <c r="V40" t="n">
         <v>271.1468876098733</v>
@@ -25617,7 +25617,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>7.671984448528889</v>
       </c>
     </row>
     <row r="41">
@@ -25636,16 +25636,16 @@
         <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>402.4235511641288</v>
       </c>
       <c r="H41" t="n">
-        <v>285.0899515417858</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>83.39812025525838</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>61.80028893930861</v>
       </c>
       <c r="U41" t="n">
-        <v>254.3124908149276</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25693,10 +25693,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
-        <v>392.7369424144043</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="42">
@@ -25715,10 +25715,10 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>81.63944942370549</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>104.7337711575492</v>
@@ -25757,13 +25757,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>84.8724997021109</v>
+        <v>79.08298268152969</v>
       </c>
       <c r="T42" t="n">
         <v>152.9662577680471</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>195.2992474636072</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>77.59046022081256</v>
       </c>
       <c r="E43" t="n">
         <v>159.3017069803637</v>
@@ -25839,7 +25839,7 @@
         <v>167.1934341018228</v>
       </c>
       <c r="T43" t="n">
-        <v>232.9032904027983</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>279.9159111551209</v>
@@ -25854,7 +25854,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>30.50987914811816</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25864,19 +25864,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>253.8184021335792</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>96.26916166877328</v>
       </c>
       <c r="G44" t="n">
         <v>402.4235511641288</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.39812025525838</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>254.3124908149276</v>
       </c>
       <c r="V44" t="n">
         <v>346.3391791168841</v>
@@ -25933,7 +25933,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="45">
@@ -25943,22 +25943,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>71.09490015251822</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C45" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>104.7337711575492</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>58.58122432777904</v>
@@ -25997,7 +25997,7 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>152.9662577680471</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -26006,10 +26006,10 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>65.65327695095928</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -26037,7 +26037,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5832153864156</v>
       </c>
       <c r="H46" t="n">
         <v>139.2678442953623</v>
@@ -26070,22 +26070,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>39.69593104582557</v>
       </c>
       <c r="S46" t="n">
-        <v>167.1934341018228</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>232.9032904027983</v>
       </c>
       <c r="U46" t="n">
-        <v>224.7731553961487</v>
+        <v>279.9159111551209</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>178.9184195204827</v>
       </c>
       <c r="X46" t="n">
         <v>235.9604235189134</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>748403.7914695592</v>
+        <v>745259.7870284552</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>258408.2055995854</v>
+        <v>266054.9950876374</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>258408.2055995855</v>
+        <v>266054.9950876374</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>258408.2055995854</v>
+        <v>266054.9950876377</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>258408.2055995855</v>
+        <v>266054.9950876376</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>382501.4659953566</v>
+        <v>382501.4659953567</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>382501.4659953567</v>
+        <v>382501.4659953566</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>382501.4659953566</v>
+        <v>382501.4659953567</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>382501.4659953567</v>
+        <v>382501.465995357</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>382501.4659953566</v>
+        <v>382501.4659953567</v>
       </c>
     </row>
   </sheetData>
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>390471.5433754225</v>
+        <v>388831.1932322377</v>
       </c>
       <c r="C2" t="n">
-        <v>390917.7432778968</v>
+        <v>390917.7432778967</v>
       </c>
       <c r="D2" t="n">
-        <v>390917.7432778968</v>
+        <v>390917.7432778964</v>
       </c>
       <c r="E2" t="n">
-        <v>134821.6724867402</v>
+        <v>138488.4261683621</v>
       </c>
       <c r="F2" t="n">
-        <v>134821.6724867402</v>
+        <v>138488.4261683621</v>
       </c>
       <c r="G2" t="n">
-        <v>134821.6724867403</v>
+        <v>138488.4261683621</v>
       </c>
       <c r="H2" t="n">
-        <v>134821.6724867402</v>
+        <v>138488.4261683621</v>
       </c>
       <c r="I2" t="n">
         <v>199565.982258447</v>
@@ -26343,16 +26343,16 @@
         <v>199565.982258447</v>
       </c>
       <c r="L2" t="n">
+        <v>199565.9822584471</v>
+      </c>
+      <c r="M2" t="n">
         <v>199565.982258447</v>
-      </c>
-      <c r="M2" t="n">
-        <v>199565.9822584471</v>
       </c>
       <c r="N2" t="n">
         <v>199565.982258447</v>
       </c>
       <c r="O2" t="n">
-        <v>199565.9822584469</v>
+        <v>199565.982258447</v>
       </c>
       <c r="P2" t="n">
         <v>199565.982258447</v>
@@ -26365,40 +26365,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142375.1639760831</v>
+        <v>127350.017006013</v>
       </c>
       <c r="C3" t="n">
-        <v>12876.99198671514</v>
+        <v>27131.97848760563</v>
       </c>
       <c r="D3" t="n">
-        <v>31557.96461998657</v>
+        <v>19708.07316189983</v>
       </c>
       <c r="E3" t="n">
-        <v>213490.2410009485</v>
+        <v>234565.8254873046</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>3.281040699221195e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>194114.737956079</v>
+        <v>184979.3124010123</v>
       </c>
       <c r="J3" t="n">
-        <v>2312.197378305219</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2054.547976877774</v>
+        <v>4328.957536659983</v>
       </c>
       <c r="L3" t="n">
-        <v>5241.311260552745</v>
+        <v>3273.21951941866</v>
       </c>
       <c r="M3" t="n">
-        <v>53262.95746401574</v>
+        <v>57787.30528721025</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>322276.7444098767</v>
+        <v>325111.9581734294</v>
       </c>
       <c r="C4" t="n">
-        <v>318713.0561323062</v>
+        <v>318713.0561323061</v>
       </c>
       <c r="D4" t="n">
-        <v>308636.4074477874</v>
+        <v>312400.2485922527</v>
       </c>
       <c r="E4" t="n">
-        <v>177.5069102544867</v>
+        <v>803.5067915153722</v>
       </c>
       <c r="F4" t="n">
-        <v>177.5069102544867</v>
+        <v>803.5067915153726</v>
       </c>
       <c r="G4" t="n">
-        <v>177.5069102544867</v>
+        <v>803.5067915153702</v>
       </c>
       <c r="H4" t="n">
-        <v>177.5069102544867</v>
+        <v>803.5067915153702</v>
       </c>
       <c r="I4" t="n">
         <v>331.9759880256581</v>
@@ -26469,25 +26469,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>37318.88185701844</v>
+        <v>36508.66363315053</v>
       </c>
       <c r="C5" t="n">
         <v>38050.77827625293</v>
       </c>
       <c r="D5" t="n">
-        <v>39949.45546466367</v>
+        <v>39236.50965629036</v>
       </c>
       <c r="E5" t="n">
-        <v>23378.13568484802</v>
+        <v>24193.81338406499</v>
       </c>
       <c r="F5" t="n">
-        <v>23378.13568484802</v>
+        <v>24193.81338406499</v>
       </c>
       <c r="G5" t="n">
-        <v>23378.13568484802</v>
+        <v>24193.81338406501</v>
       </c>
       <c r="H5" t="n">
-        <v>23378.13568484802</v>
+        <v>24193.81338406502</v>
       </c>
       <c r="I5" t="n">
         <v>40710.1211392429</v>
@@ -26505,7 +26505,7 @@
         <v>40710.1211392429</v>
       </c>
       <c r="N5" t="n">
-        <v>40710.1211392429</v>
+        <v>40710.12113924291</v>
       </c>
       <c r="O5" t="n">
         <v>40710.1211392429</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-111499.2468675558</v>
+        <v>-100148.1395388788</v>
       </c>
       <c r="C6" t="n">
-        <v>21276.91688262258</v>
+        <v>7021.93038173204</v>
       </c>
       <c r="D6" t="n">
-        <v>10773.91574545916</v>
+        <v>19572.91186745353</v>
       </c>
       <c r="E6" t="n">
-        <v>-102224.2111093108</v>
+        <v>-122126.5083158126</v>
       </c>
       <c r="F6" t="n">
-        <v>111266.0298916377</v>
+        <v>112439.317171492</v>
       </c>
       <c r="G6" t="n">
-        <v>111266.0298916378</v>
+        <v>112439.3171714917</v>
       </c>
       <c r="H6" t="n">
-        <v>111266.0298916377</v>
+        <v>112439.317171492</v>
       </c>
       <c r="I6" t="n">
-        <v>-35590.85282490062</v>
+        <v>-27252.72627408152</v>
       </c>
       <c r="J6" t="n">
-        <v>156211.6877528732</v>
+        <v>157726.5861269308</v>
       </c>
       <c r="K6" t="n">
-        <v>156469.3371543007</v>
+        <v>153397.6285902708</v>
       </c>
       <c r="L6" t="n">
-        <v>153282.5738706257</v>
+        <v>154453.3666075121</v>
       </c>
       <c r="M6" t="n">
-        <v>105260.9276671628</v>
+        <v>99939.28083972048</v>
       </c>
       <c r="N6" t="n">
-        <v>158523.8851311784</v>
+        <v>157726.5861269307</v>
       </c>
       <c r="O6" t="n">
-        <v>158523.8851311784</v>
+        <v>157726.5861269307</v>
       </c>
       <c r="P6" t="n">
-        <v>158523.8851311784</v>
+        <v>157726.5861269307</v>
       </c>
     </row>
   </sheetData>
@@ -26737,25 +26737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>144.6780178509898</v>
+        <v>132.1588822546115</v>
       </c>
       <c r="C3" t="n">
         <v>155.9869593743713</v>
       </c>
       <c r="D3" t="n">
-        <v>185.324484099487</v>
+        <v>174.3083590791369</v>
       </c>
       <c r="E3" t="n">
-        <v>371.6250857985382</v>
+        <v>380.0946260603545</v>
       </c>
       <c r="F3" t="n">
-        <v>371.6250857985382</v>
+        <v>380.0946260603544</v>
       </c>
       <c r="G3" t="n">
-        <v>371.6250857985382</v>
+        <v>380.0946260603547</v>
       </c>
       <c r="H3" t="n">
-        <v>371.6250857985382</v>
+        <v>380.0946260603547</v>
       </c>
       <c r="I3" t="n">
         <v>551.5907128643867</v>
@@ -26789,43 +26789,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8.837188616231382</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>16.8201079258493</v>
       </c>
       <c r="D4" t="n">
-        <v>37.52930446208636</v>
+        <v>29.75308270337462</v>
       </c>
       <c r="E4" t="n">
-        <v>251.261658132235</v>
+        <v>261.6406338149549</v>
       </c>
       <c r="F4" t="n">
-        <v>251.261658132235</v>
+        <v>261.640633814955</v>
       </c>
       <c r="G4" t="n">
-        <v>251.261658132235</v>
+        <v>261.6406338149552</v>
       </c>
       <c r="H4" t="n">
-        <v>251.261658132235</v>
+        <v>261.6406338149553</v>
       </c>
       <c r="I4" t="n">
         <v>471.8000591907775</v>
       </c>
       <c r="J4" t="n">
-        <v>471.8000591907774</v>
+        <v>471.8000591907775</v>
       </c>
       <c r="K4" t="n">
         <v>471.8000591907775</v>
       </c>
       <c r="L4" t="n">
+        <v>471.8000591907775</v>
+      </c>
+      <c r="M4" t="n">
         <v>471.8000591907774</v>
       </c>
-      <c r="M4" t="n">
-        <v>471.8000591907775</v>
-      </c>
       <c r="N4" t="n">
-        <v>471.8000591907774</v>
+        <v>471.8000591907776</v>
       </c>
       <c r="O4" t="n">
         <v>471.8000591907774</v>
@@ -26959,28 +26959,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>144.6780178509898</v>
+        <v>132.1588822546115</v>
       </c>
       <c r="C3" t="n">
-        <v>11.30894152338149</v>
+        <v>23.82807711975974</v>
       </c>
       <c r="D3" t="n">
-        <v>29.33752472511571</v>
+        <v>18.32139970476561</v>
       </c>
       <c r="E3" t="n">
-        <v>186.3006016990512</v>
+        <v>205.7862669812176</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>4.220058598048835e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>179.9656270658484</v>
+        <v>171.496086804032</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8.837188616231382</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>7.982919309617918</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="D4" t="n">
-        <v>20.70919653623706</v>
+        <v>12.93297477752532</v>
       </c>
       <c r="E4" t="n">
-        <v>213.7323536701486</v>
+        <v>231.8875511115803</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,19 +27032,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>220.5384010585425</v>
+        <v>210.1594253758222</v>
       </c>
       <c r="J4" t="n">
-        <v>8.837188616231288</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>7.982919309618032</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="L4" t="n">
-        <v>20.70919653623695</v>
+        <v>12.93297477752532</v>
       </c>
       <c r="M4" t="n">
-        <v>213.7323536701487</v>
+        <v>231.8875511115803</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>8.837188616231382</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>7.982919309617918</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="L4" t="n">
-        <v>20.70919653623706</v>
+        <v>12.93297477752532</v>
       </c>
       <c r="M4" t="n">
-        <v>213.7323536701486</v>
+        <v>231.8875511115803</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27396,19 +27396,19 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>301.8428948093473</v>
+        <v>302.3583183165892</v>
       </c>
       <c r="I2" t="n">
-        <v>63.06533336484014</v>
+        <v>65.00561065159138</v>
       </c>
       <c r="J2" t="n">
-        <v>32.79649485373854</v>
+        <v>28.23084788503724</v>
       </c>
       <c r="K2" t="n">
-        <v>15.75287932316112</v>
+        <v>21.55405633213152</v>
       </c>
       <c r="L2" t="n">
-        <v>3.70137272809076</v>
+        <v>11.64353751452477</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27417,25 +27417,25 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3.673052520349231</v>
       </c>
       <c r="P2" t="n">
-        <v>10.01165548392076</v>
+        <v>17.24891115298081</v>
       </c>
       <c r="Q2" t="n">
-        <v>27.22536902143919</v>
+        <v>32.66024662599554</v>
       </c>
       <c r="R2" t="n">
-        <v>50.77694466866426</v>
+        <v>53.93837241300997</v>
       </c>
       <c r="S2" t="n">
-        <v>120.6745947783449</v>
+        <v>121.8214482553398</v>
       </c>
       <c r="T2" t="n">
-        <v>217.4383769085185</v>
+        <v>217.6586885309231</v>
       </c>
       <c r="U2" t="n">
-        <v>254.4433572093038</v>
+        <v>254.4473834639679</v>
       </c>
       <c r="V2" t="n">
         <v>346.3391791168841</v>
@@ -27447,7 +27447,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -27472,19 +27472,19 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G3" t="n">
-        <v>105.609017331729</v>
+        <v>105.6359452837665</v>
       </c>
       <c r="H3" t="n">
-        <v>67.03425974683093</v>
+        <v>67.29432707308776</v>
       </c>
       <c r="I3" t="n">
-        <v>20.75501264103022</v>
+        <v>30.51932592171037</v>
       </c>
       <c r="J3" t="n">
-        <v>19.75915258966462</v>
+        <v>24.51230971842843</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>9.923013275483001</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27502,22 +27502,22 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>16.96894839601601</v>
+        <v>20.40627785259141</v>
       </c>
       <c r="R3" t="n">
-        <v>39.67885928749397</v>
+        <v>41.35075441487444</v>
       </c>
       <c r="S3" t="n">
-        <v>101.129813507599</v>
+        <v>101.6299884061901</v>
       </c>
       <c r="T3" t="n">
-        <v>156.494114057833</v>
+        <v>156.6026526013526</v>
       </c>
       <c r="U3" t="n">
-        <v>186.5196408325192</v>
+        <v>195.3586010245425</v>
       </c>
       <c r="V3" t="n">
-        <v>202.7372231206651</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W3" t="n">
         <v>211.1008365810345</v>
@@ -27551,49 +27551,49 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>165.3169923774233</v>
+        <v>165.339567867843</v>
       </c>
       <c r="H4" t="n">
-        <v>145.7917888154132</v>
+        <v>145.9925054484174</v>
       </c>
       <c r="I4" t="n">
-        <v>107.3367676817815</v>
+        <v>108.0156742482211</v>
       </c>
       <c r="J4" t="n">
-        <v>32.98788429234645</v>
+        <v>34.58397146501913</v>
       </c>
       <c r="K4" t="n">
-        <v>21.93913893389225</v>
+        <v>24.56200045719904</v>
       </c>
       <c r="L4" t="n">
-        <v>15.84035448512959</v>
+        <v>19.19671421534549</v>
       </c>
       <c r="M4" t="n">
-        <v>15.36849886263879</v>
+        <v>18.90730960179207</v>
       </c>
       <c r="N4" t="n">
-        <v>11.78862789389957</v>
+        <v>15.2432936233067</v>
       </c>
       <c r="O4" t="n">
-        <v>19.19860591648501</v>
+        <v>22.38954887144386</v>
       </c>
       <c r="P4" t="n">
-        <v>24.22580312368237</v>
+        <v>26.95620607407935</v>
       </c>
       <c r="Q4" t="n">
-        <v>39.5131449644261</v>
+        <v>41.40353443947922</v>
       </c>
       <c r="R4" t="n">
-        <v>72.68921284150197</v>
+        <v>73.70428898346404</v>
       </c>
       <c r="S4" t="n">
-        <v>179.9811658451127</v>
+        <v>180.3745950736087</v>
       </c>
       <c r="T4" t="n">
-        <v>236.038519364377</v>
+        <v>236.1349782779884</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9559353546304</v>
+        <v>279.9571667450169</v>
       </c>
       <c r="V4" t="n">
         <v>271.1468876098733</v>
@@ -27630,7 +27630,7 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>398.4731348828968</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>301.3772960259249</v>
@@ -27663,7 +27663,7 @@
         <v>22.31586767899472</v>
       </c>
       <c r="R5" t="n">
-        <v>47.92112437532511</v>
+        <v>46.39425925822192</v>
       </c>
       <c r="S5" t="n">
         <v>119.6386048086402</v>
@@ -27694,7 +27694,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>122.7754432068614</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C6" t="n">
         <v>132.6551205385437</v>
@@ -27712,13 +27712,13 @@
         <v>105.5846924386409</v>
       </c>
       <c r="H6" t="n">
-        <v>66.79933248990181</v>
+        <v>50.67477338753243</v>
       </c>
       <c r="I6" t="n">
-        <v>28.7546994557659</v>
+        <v>11.9345915299166</v>
       </c>
       <c r="J6" t="n">
-        <v>19.67003981996857</v>
+        <v>2.849931894119273</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27745,7 +27745,7 @@
         <v>38.16858215348465</v>
       </c>
       <c r="S6" t="n">
-        <v>83.8578813614523</v>
+        <v>100.6779892873016</v>
       </c>
       <c r="T6" t="n">
         <v>156.3960676685878</v>
@@ -27757,7 +27757,7 @@
         <v>211.5744117368965</v>
       </c>
       <c r="W6" t="n">
-        <v>194.2807286551852</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X6" t="n">
         <v>174.5627220424961</v>
@@ -27858,22 +27858,22 @@
         <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>399.176179317782</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>372.6675088661859</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>379.2908034637629</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>366.3666737523535</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>300.1694450707848</v>
+        <v>300.6229883486327</v>
       </c>
       <c r="I8" t="n">
-        <v>56.76574385712079</v>
+        <v>58.47307716303857</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,19 +27900,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>40.51258854612291</v>
+        <v>40.30268919229242</v>
       </c>
       <c r="S8" t="n">
-        <v>116.9510516642238</v>
+        <v>117.9602172879473</v>
       </c>
       <c r="T8" t="n">
-        <v>216.7230808039846</v>
+        <v>216.9169424613779</v>
       </c>
       <c r="U8" t="n">
-        <v>254.4302849789525</v>
+        <v>254.4338278533309</v>
       </c>
       <c r="V8" t="n">
-        <v>346.3391791168841</v>
+        <v>316.5860964135095</v>
       </c>
       <c r="W8" t="n">
         <v>379.9226978561831</v>
@@ -27943,16 +27943,16 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F9" t="n">
-        <v>107.8702810193205</v>
+        <v>78.11719831594584</v>
       </c>
       <c r="G9" t="n">
-        <v>105.5215890835718</v>
+        <v>105.5452841449363</v>
       </c>
       <c r="H9" t="n">
-        <v>66.18988692910271</v>
+        <v>62.63729549638445</v>
       </c>
       <c r="I9" t="n">
-        <v>26.58206201150026</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,16 +27979,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>5.968728372556612</v>
       </c>
       <c r="S9" t="n">
-        <v>61.97656768171652</v>
+        <v>99.94599751607818</v>
       </c>
       <c r="T9" t="n">
-        <v>118.6124124025168</v>
+        <v>156.2372245900154</v>
       </c>
       <c r="U9" t="n">
-        <v>178.5335663368481</v>
+        <v>195.3526364759353</v>
       </c>
       <c r="V9" t="n">
         <v>211.5744117368965</v>
@@ -28025,49 +28025,49 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>165.2436954710736</v>
+        <v>165.2635606145529</v>
       </c>
       <c r="H10" t="n">
-        <v>145.1401126844127</v>
+        <v>145.3167318691652</v>
       </c>
       <c r="I10" t="n">
-        <v>105.1325298071908</v>
+        <v>105.729928849278</v>
       </c>
       <c r="J10" t="n">
-        <v>27.80579301341919</v>
+        <v>29.2102586574071</v>
       </c>
       <c r="K10" t="n">
-        <v>13.42337108707596</v>
+        <v>15.73133957494603</v>
       </c>
       <c r="L10" t="n">
-        <v>4.943103517458709</v>
+        <v>7.896508576193234</v>
       </c>
       <c r="M10" t="n">
-        <v>3.878875624559498</v>
+        <v>6.992827161049604</v>
       </c>
       <c r="N10" t="n">
-        <v>0.5722022158511422</v>
+        <v>3.612110944827428</v>
       </c>
       <c r="O10" t="n">
-        <v>8.838421371704122</v>
+        <v>11.64626910639926</v>
       </c>
       <c r="P10" t="n">
-        <v>15.36087546843636</v>
+        <v>17.76347427615337</v>
       </c>
       <c r="Q10" t="n">
-        <v>33.37552856090304</v>
+        <v>35.0389634389759</v>
       </c>
       <c r="R10" t="n">
-        <v>69.39351739781233</v>
+        <v>70.28672648552794</v>
       </c>
       <c r="S10" t="n">
-        <v>178.7038006680902</v>
+        <v>179.0499959412707</v>
       </c>
       <c r="T10" t="n">
-        <v>235.7253416736098</v>
+        <v>235.8102200139306</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9519373415568</v>
+        <v>279.9530208948375</v>
       </c>
       <c r="V10" t="n">
         <v>271.1468876098733</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5816201722652852</v>
+        <v>0.531291988963262</v>
       </c>
       <c r="H2" t="n">
-        <v>5.956517589211853</v>
+        <v>5.441094081970009</v>
       </c>
       <c r="I2" t="n">
-        <v>22.42291169125743</v>
+        <v>20.48263440450618</v>
       </c>
       <c r="J2" t="n">
-        <v>49.36428509580079</v>
+        <v>45.0927434482707</v>
       </c>
       <c r="K2" t="n">
-        <v>73.98426698779032</v>
+        <v>67.5823333410856</v>
       </c>
       <c r="L2" t="n">
-        <v>91.78402533475406</v>
+        <v>83.84186054832006</v>
       </c>
       <c r="M2" t="n">
-        <v>102.1274130732768</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N2" t="n">
-        <v>101.7494793728507</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O2" t="n">
-        <v>97.99645579976264</v>
+        <v>89.5167231054339</v>
       </c>
       <c r="P2" t="n">
-        <v>83.6377077969634</v>
+        <v>76.40045212790335</v>
       </c>
       <c r="Q2" t="n">
-        <v>62.80843537771285</v>
+        <v>57.37355777315651</v>
       </c>
       <c r="R2" t="n">
-        <v>36.53519814605925</v>
+        <v>33.37377040171354</v>
       </c>
       <c r="S2" t="n">
-        <v>13.2536696754952</v>
+        <v>12.10681619850035</v>
       </c>
       <c r="T2" t="n">
-        <v>2.546042304091287</v>
+        <v>2.325730681686681</v>
       </c>
       <c r="U2" t="n">
-        <v>0.0465296137812228</v>
+        <v>0.04250335911706096</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3111942270757139</v>
+        <v>0.2842662750382211</v>
       </c>
       <c r="H3" t="n">
-        <v>3.005481087810185</v>
+        <v>2.745413761553346</v>
       </c>
       <c r="I3" t="n">
-        <v>10.7143626427384</v>
+        <v>9.78723797828963</v>
       </c>
       <c r="J3" t="n">
-        <v>29.40103002385068</v>
+        <v>26.85692908157158</v>
       </c>
       <c r="K3" t="n">
-        <v>50.2510432379235</v>
+        <v>45.90276950913239</v>
       </c>
       <c r="L3" t="n">
-        <v>64.95171242708044</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
-        <v>66.4014723546488</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N3" t="n">
-        <v>62.03058200998137</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O3" t="n">
-        <v>66.23160949032304</v>
+        <v>57.751479</v>
       </c>
       <c r="P3" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q3" t="n">
-        <v>39.72367010882271</v>
+        <v>36.28634065224731</v>
       </c>
       <c r="R3" t="n">
-        <v>19.32133981791144</v>
+        <v>17.64944469053096</v>
       </c>
       <c r="S3" t="n">
-        <v>5.780296279235296</v>
+        <v>5.280121380644147</v>
       </c>
       <c r="T3" t="n">
-        <v>1.254331117028864</v>
+        <v>1.14579257350932</v>
       </c>
       <c r="U3" t="n">
-        <v>0.02047330441287592</v>
+        <v>0.0187017286209356</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2608947862886701</v>
+        <v>0.2383192958689716</v>
       </c>
       <c r="H4" t="n">
-        <v>2.319591827184723</v>
+        <v>2.118875194180494</v>
       </c>
       <c r="I4" t="n">
-        <v>7.845817754935645</v>
+        <v>7.166911188495985</v>
       </c>
       <c r="J4" t="n">
-        <v>18.44526139060897</v>
+        <v>16.84917421793629</v>
       </c>
       <c r="K4" t="n">
-        <v>30.31123062517457</v>
+        <v>27.68836910186779</v>
       </c>
       <c r="L4" t="n">
-        <v>38.78793940877192</v>
+        <v>35.43157967855602</v>
       </c>
       <c r="M4" t="n">
-        <v>40.89644363614125</v>
+        <v>37.35763289698797</v>
       </c>
       <c r="N4" t="n">
-        <v>39.92401761451988</v>
+        <v>36.46935188511274</v>
       </c>
       <c r="O4" t="n">
-        <v>36.87629215651131</v>
+        <v>33.68534920155247</v>
       </c>
       <c r="P4" t="n">
-        <v>31.55403851622241</v>
+        <v>28.82363556582543</v>
       </c>
       <c r="Q4" t="n">
-        <v>21.84638069549946</v>
+        <v>19.95599122044634</v>
       </c>
       <c r="R4" t="n">
-        <v>11.73077829985238</v>
+        <v>10.7157021578903</v>
       </c>
       <c r="S4" t="n">
-        <v>4.546684593776186</v>
+        <v>4.153255365280168</v>
       </c>
       <c r="T4" t="n">
-        <v>1.114732268687954</v>
+        <v>1.018273355076515</v>
       </c>
       <c r="U4" t="n">
-        <v>0.01423062470665475</v>
+        <v>0.01299923432012574</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31372,13 +31372,13 @@
         <v>54.17898003100215</v>
       </c>
       <c r="L6" t="n">
-        <v>72.85032475309671</v>
+        <v>62.44523021887541</v>
       </c>
       <c r="M6" t="n">
         <v>74.38439166426673</v>
       </c>
       <c r="N6" t="n">
-        <v>59.60840678537798</v>
+        <v>70.0135013195993</v>
       </c>
       <c r="O6" t="n">
         <v>74.57158692584929</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.7450230516562285</v>
+        <v>0.700737121926178</v>
       </c>
       <c r="H8" t="n">
-        <v>7.629967327774352</v>
+        <v>7.176424049926472</v>
       </c>
       <c r="I8" t="n">
-        <v>28.72250119897678</v>
+        <v>27.015167893059</v>
       </c>
       <c r="J8" t="n">
-        <v>63.23290023050789</v>
+        <v>59.47418730208199</v>
       </c>
       <c r="K8" t="n">
-        <v>94.76972600711606</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L8" t="n">
-        <v>117.5702252242404</v>
+        <v>110.5815733683654</v>
       </c>
       <c r="M8" t="n">
-        <v>130.8195289191318</v>
+        <v>123.0433071604201</v>
       </c>
       <c r="N8" t="n">
-        <v>130.4415952187057</v>
+        <v>122.6653734599939</v>
       </c>
       <c r="O8" t="n">
-        <v>125.5280026947435</v>
+        <v>118.0663217519394</v>
       </c>
       <c r="P8" t="n">
-        <v>107.1352461069803</v>
+        <v>100.7668740543869</v>
       </c>
       <c r="Q8" t="n">
-        <v>80.4541080695416</v>
+        <v>75.6717258754056</v>
       </c>
       <c r="R8" t="n">
-        <v>46.79955426860061</v>
+        <v>44.01767823519531</v>
       </c>
       <c r="S8" t="n">
-        <v>16.97721278961632</v>
+        <v>15.9680471658928</v>
       </c>
       <c r="T8" t="n">
-        <v>3.261338408625142</v>
+        <v>3.067476751231845</v>
       </c>
       <c r="U8" t="n">
-        <v>0.05960184413249827</v>
+        <v>0.05605896975409422</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3986224752328588</v>
+        <v>0.3749274138683322</v>
       </c>
       <c r="H9" t="n">
-        <v>3.8498539055384</v>
+        <v>3.621009497096788</v>
       </c>
       <c r="I9" t="n">
-        <v>13.72450188849975</v>
+        <v>12.9086850827474</v>
       </c>
       <c r="J9" t="n">
-        <v>37.66108218855707</v>
+        <v>35.422418518148</v>
       </c>
       <c r="K9" t="n">
-        <v>55.82578278461539</v>
+        <v>60.54255524732626</v>
       </c>
       <c r="L9" t="n">
-        <v>86.55177910702929</v>
+        <v>81.40693694540256</v>
       </c>
       <c r="M9" t="n">
-        <v>79.24788371570156</v>
+        <v>87.31736644179205</v>
       </c>
       <c r="N9" t="n">
-        <v>90.72269785583634</v>
+        <v>82.94647609712462</v>
       </c>
       <c r="O9" t="n">
-        <v>94.84242725419689</v>
+        <v>86.04631405379294</v>
       </c>
       <c r="P9" t="n">
-        <v>76.11940932757986</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q9" t="n">
-        <v>50.88380929463651</v>
+        <v>47.85915549659623</v>
       </c>
       <c r="R9" t="n">
-        <v>24.74956034822961</v>
+        <v>23.27838802947418</v>
       </c>
       <c r="S9" t="n">
-        <v>7.404237643031386</v>
+        <v>6.964112270756078</v>
       </c>
       <c r="T9" t="n">
-        <v>1.606728310258759</v>
+        <v>1.511220584846479</v>
       </c>
       <c r="U9" t="n">
-        <v>0.02622516284426704</v>
+        <v>0.02466627722817976</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3341916926384191</v>
+        <v>0.3143265491590992</v>
       </c>
       <c r="H10" t="n">
-        <v>2.97126795818522</v>
+        <v>2.794648773432721</v>
       </c>
       <c r="I10" t="n">
-        <v>10.05005562952628</v>
+        <v>9.452656587439098</v>
       </c>
       <c r="J10" t="n">
-        <v>23.62735266953623</v>
+        <v>22.22288702554832</v>
       </c>
       <c r="K10" t="n">
-        <v>38.82699847199087</v>
+        <v>36.5190299841208</v>
       </c>
       <c r="L10" t="n">
-        <v>49.6851903764428</v>
+        <v>46.73178531770827</v>
       </c>
       <c r="M10" t="n">
-        <v>52.38606687422055</v>
+        <v>49.27211533773044</v>
       </c>
       <c r="N10" t="n">
-        <v>51.1404432925683</v>
+        <v>48.10053456359201</v>
       </c>
       <c r="O10" t="n">
-        <v>47.2364767012922</v>
+        <v>44.42862896659707</v>
       </c>
       <c r="P10" t="n">
-        <v>40.41896617146842</v>
+        <v>38.01636736375141</v>
       </c>
       <c r="Q10" t="n">
-        <v>27.98399709902253</v>
+        <v>26.32056222094967</v>
       </c>
       <c r="R10" t="n">
-        <v>15.02647374354201</v>
+        <v>14.13326465582641</v>
       </c>
       <c r="S10" t="n">
-        <v>5.82404977079863</v>
+        <v>5.477854497618119</v>
       </c>
       <c r="T10" t="n">
-        <v>1.427909959455063</v>
+        <v>1.343031619134333</v>
       </c>
       <c r="U10" t="n">
-        <v>0.01822863778027743</v>
+        <v>0.01714508449958725</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.493970194164977</v>
+        <v>1.528018597227554</v>
       </c>
       <c r="H11" t="n">
-        <v>15.30012225099207</v>
+        <v>15.6488204588567</v>
       </c>
       <c r="I11" t="n">
-        <v>57.59628591054531</v>
+        <v>58.90893696961535</v>
       </c>
       <c r="J11" t="n">
-        <v>126.7988527670098</v>
+        <v>129.6886684164423</v>
       </c>
       <c r="K11" t="n">
-        <v>190.0386110860133</v>
+        <v>194.3696956370847</v>
       </c>
       <c r="L11" t="n">
-        <v>235.7597014156897</v>
+        <v>241.1327947819875</v>
       </c>
       <c r="M11" t="n">
-        <v>262.3280938561711</v>
+        <v>268.306695510433</v>
       </c>
       <c r="N11" t="n">
-        <v>266.5728366703424</v>
+        <v>272.6481783498058</v>
       </c>
       <c r="O11" t="n">
-        <v>251.7171705521144</v>
+        <v>257.4539434236243</v>
       </c>
       <c r="P11" t="n">
-        <v>214.8347813836665</v>
+        <v>219.730984304569</v>
       </c>
       <c r="Q11" t="n">
-        <v>161.3319738051332</v>
+        <v>165.0088182913572</v>
       </c>
       <c r="R11" t="n">
-        <v>93.84560520921579</v>
+        <v>95.98439820809546</v>
       </c>
       <c r="S11" t="n">
-        <v>34.04384579953444</v>
+        <v>34.81972378432293</v>
       </c>
       <c r="T11" t="n">
-        <v>6.539854524957188</v>
+        <v>6.688901409363623</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1195176155331981</v>
+        <v>0.1222414877782043</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.7993445241704407</v>
+        <v>0.8175620258656682</v>
       </c>
       <c r="H12" t="n">
-        <v>7.719985272909256</v>
+        <v>7.895927986650007</v>
       </c>
       <c r="I12" t="n">
-        <v>27.52129173130684</v>
+        <v>28.1485171186206</v>
       </c>
       <c r="J12" t="n">
-        <v>75.52052804892747</v>
+        <v>77.24168245251035</v>
       </c>
       <c r="K12" t="n">
-        <v>129.076611168347</v>
+        <v>132.0183381855101</v>
       </c>
       <c r="L12" t="n">
-        <v>173.5594327590248</v>
+        <v>177.5149477652627</v>
       </c>
       <c r="M12" t="n">
-        <v>202.5356717602033</v>
+        <v>207.1515712028932</v>
       </c>
       <c r="N12" t="n">
-        <v>207.8961883279954</v>
+        <v>212.6342568938959</v>
       </c>
       <c r="O12" t="n">
-        <v>190.1843965029557</v>
+        <v>194.518803583925</v>
       </c>
       <c r="P12" t="n">
-        <v>152.6397451461958</v>
+        <v>156.118488956752</v>
       </c>
       <c r="Q12" t="n">
-        <v>102.0356273309496</v>
+        <v>104.3610754420807</v>
       </c>
       <c r="R12" t="n">
-        <v>49.62947843928404</v>
+        <v>50.76056157085264</v>
       </c>
       <c r="S12" t="n">
-        <v>14.84747394676234</v>
+        <v>15.18585605061887</v>
       </c>
       <c r="T12" t="n">
-        <v>3.221919375932608</v>
+        <v>3.295348691976091</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05258845553752901</v>
+        <v>0.05378697538589924</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6701435973416261</v>
+        <v>0.6854165387973604</v>
       </c>
       <c r="H13" t="n">
-        <v>5.95818580181919</v>
+        <v>6.0939761358529</v>
       </c>
       <c r="I13" t="n">
-        <v>20.15304563641909</v>
+        <v>20.61234463946972</v>
       </c>
       <c r="J13" t="n">
-        <v>47.37915233205297</v>
+        <v>48.45894929297338</v>
       </c>
       <c r="K13" t="n">
-        <v>77.85850158205437</v>
+        <v>79.63293968936604</v>
       </c>
       <c r="L13" t="n">
-        <v>99.63207628113597</v>
+        <v>101.9027461408367</v>
       </c>
       <c r="M13" t="n">
-        <v>105.0480549905605</v>
+        <v>107.442157986208</v>
       </c>
       <c r="N13" t="n">
-        <v>102.5502470368327</v>
+        <v>104.8874236143271</v>
       </c>
       <c r="O13" t="n">
-        <v>94.72175137697825</v>
+        <v>96.88051222928513</v>
       </c>
       <c r="P13" t="n">
-        <v>81.05082199120901</v>
+        <v>82.89801483781891</v>
       </c>
       <c r="Q13" t="n">
-        <v>56.11538795557927</v>
+        <v>57.39428853511352</v>
       </c>
       <c r="R13" t="n">
-        <v>30.13209302228802</v>
+        <v>30.81882000810676</v>
       </c>
       <c r="S13" t="n">
-        <v>11.67877523730815</v>
+        <v>11.9449409534049</v>
       </c>
       <c r="T13" t="n">
-        <v>2.863340825005129</v>
+        <v>2.928597938497812</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03655328712772511</v>
+        <v>0.03738635666167425</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.493970194164977</v>
+        <v>1.528018597227554</v>
       </c>
       <c r="H14" t="n">
-        <v>15.30012225099207</v>
+        <v>15.64882045885669</v>
       </c>
       <c r="I14" t="n">
-        <v>57.59628591054532</v>
+        <v>58.90893696961535</v>
       </c>
       <c r="J14" t="n">
-        <v>126.7988527670098</v>
+        <v>129.6886684164423</v>
       </c>
       <c r="K14" t="n">
-        <v>190.0386110860133</v>
+        <v>194.3696956370847</v>
       </c>
       <c r="L14" t="n">
-        <v>235.7597014156898</v>
+        <v>241.1327947819875</v>
       </c>
       <c r="M14" t="n">
-        <v>262.3280938561712</v>
+        <v>268.306695510433</v>
       </c>
       <c r="N14" t="n">
-        <v>266.5728366703424</v>
+        <v>272.6481783498058</v>
       </c>
       <c r="O14" t="n">
-        <v>251.7171705521144</v>
+        <v>257.4539434236243</v>
       </c>
       <c r="P14" t="n">
-        <v>214.8347813836665</v>
+        <v>219.730984304569</v>
       </c>
       <c r="Q14" t="n">
-        <v>161.3319738051332</v>
+        <v>165.0088182913572</v>
       </c>
       <c r="R14" t="n">
-        <v>93.8456052092158</v>
+        <v>95.98439820809544</v>
       </c>
       <c r="S14" t="n">
-        <v>34.04384579953444</v>
+        <v>34.81972378432292</v>
       </c>
       <c r="T14" t="n">
-        <v>6.539854524957189</v>
+        <v>6.688901409363623</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1195176155331981</v>
+        <v>0.1222414877782043</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7993445241704408</v>
+        <v>0.8175620258656681</v>
       </c>
       <c r="H15" t="n">
-        <v>7.719985272909258</v>
+        <v>7.895927986650006</v>
       </c>
       <c r="I15" t="n">
-        <v>27.52129173130685</v>
+        <v>28.14851711862059</v>
       </c>
       <c r="J15" t="n">
-        <v>75.52052804892749</v>
+        <v>77.24168245251033</v>
       </c>
       <c r="K15" t="n">
-        <v>129.076611168347</v>
+        <v>132.0183381855101</v>
       </c>
       <c r="L15" t="n">
-        <v>173.5594327590249</v>
+        <v>177.5149477652627</v>
       </c>
       <c r="M15" t="n">
-        <v>202.5356717602033</v>
+        <v>207.1515712028931</v>
       </c>
       <c r="N15" t="n">
-        <v>207.8961883279955</v>
+        <v>212.6342568938958</v>
       </c>
       <c r="O15" t="n">
-        <v>190.1843965029557</v>
+        <v>194.5188035839249</v>
       </c>
       <c r="P15" t="n">
-        <v>152.6397451461958</v>
+        <v>156.118488956752</v>
       </c>
       <c r="Q15" t="n">
-        <v>102.0356273309496</v>
+        <v>104.3610754420807</v>
       </c>
       <c r="R15" t="n">
-        <v>49.62947843928405</v>
+        <v>50.76056157085264</v>
       </c>
       <c r="S15" t="n">
-        <v>14.84747394676234</v>
+        <v>15.18585605061887</v>
       </c>
       <c r="T15" t="n">
-        <v>3.221919375932609</v>
+        <v>3.29534869197609</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05258845553752902</v>
+        <v>0.05378697538589923</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6701435973416262</v>
+        <v>0.6854165387973603</v>
       </c>
       <c r="H16" t="n">
-        <v>5.958185801819191</v>
+        <v>6.093976135852899</v>
       </c>
       <c r="I16" t="n">
-        <v>20.15304563641909</v>
+        <v>20.61234463946971</v>
       </c>
       <c r="J16" t="n">
-        <v>47.37915233205297</v>
+        <v>48.45894929297337</v>
       </c>
       <c r="K16" t="n">
-        <v>77.85850158205437</v>
+        <v>79.63293968936603</v>
       </c>
       <c r="L16" t="n">
-        <v>99.63207628113598</v>
+        <v>101.9027461408367</v>
       </c>
       <c r="M16" t="n">
-        <v>105.0480549905605</v>
+        <v>107.442157986208</v>
       </c>
       <c r="N16" t="n">
-        <v>102.5502470368327</v>
+        <v>104.887423614327</v>
       </c>
       <c r="O16" t="n">
-        <v>94.72175137697826</v>
+        <v>96.88051222928512</v>
       </c>
       <c r="P16" t="n">
-        <v>81.05082199120902</v>
+        <v>82.89801483781889</v>
       </c>
       <c r="Q16" t="n">
-        <v>56.11538795557927</v>
+        <v>57.39428853511352</v>
       </c>
       <c r="R16" t="n">
-        <v>30.13209302228802</v>
+        <v>30.81882000810676</v>
       </c>
       <c r="S16" t="n">
-        <v>11.67877523730816</v>
+        <v>11.9449409534049</v>
       </c>
       <c r="T16" t="n">
-        <v>2.86334082500513</v>
+        <v>2.928597938497812</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03655328712772511</v>
+        <v>0.03738635666167425</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.493970194164977</v>
+        <v>1.528018597227556</v>
       </c>
       <c r="H17" t="n">
-        <v>15.30012225099207</v>
+        <v>15.64882045885671</v>
       </c>
       <c r="I17" t="n">
-        <v>57.59628591054532</v>
+        <v>58.90893696961539</v>
       </c>
       <c r="J17" t="n">
-        <v>126.7988527670098</v>
+        <v>129.6886684164423</v>
       </c>
       <c r="K17" t="n">
-        <v>190.0386110860133</v>
+        <v>194.3696956370848</v>
       </c>
       <c r="L17" t="n">
-        <v>235.7597014156898</v>
+        <v>241.1327947819877</v>
       </c>
       <c r="M17" t="n">
-        <v>262.3280938561712</v>
+        <v>268.3066955104332</v>
       </c>
       <c r="N17" t="n">
-        <v>266.5728366703424</v>
+        <v>272.648178349806</v>
       </c>
       <c r="O17" t="n">
-        <v>251.7171705521144</v>
+        <v>257.4539434236245</v>
       </c>
       <c r="P17" t="n">
-        <v>214.8347813836665</v>
+        <v>219.7309843045692</v>
       </c>
       <c r="Q17" t="n">
-        <v>161.3319738051332</v>
+        <v>165.0088182913573</v>
       </c>
       <c r="R17" t="n">
-        <v>93.8456052092158</v>
+        <v>95.98439820809551</v>
       </c>
       <c r="S17" t="n">
-        <v>34.04384579953444</v>
+        <v>34.81972378432295</v>
       </c>
       <c r="T17" t="n">
-        <v>6.539854524957189</v>
+        <v>6.688901409363627</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1195176155331981</v>
+        <v>0.1222414877782044</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7993445241704408</v>
+        <v>0.8175620258656686</v>
       </c>
       <c r="H18" t="n">
-        <v>7.719985272909258</v>
+        <v>7.895927986650011</v>
       </c>
       <c r="I18" t="n">
-        <v>27.52129173130685</v>
+        <v>28.14851711862061</v>
       </c>
       <c r="J18" t="n">
-        <v>75.52052804892749</v>
+        <v>77.2416824525104</v>
       </c>
       <c r="K18" t="n">
-        <v>129.076611168347</v>
+        <v>132.0183381855102</v>
       </c>
       <c r="L18" t="n">
-        <v>173.5594327590249</v>
+        <v>177.5149477652628</v>
       </c>
       <c r="M18" t="n">
-        <v>202.5356717602033</v>
+        <v>207.1515712028933</v>
       </c>
       <c r="N18" t="n">
-        <v>207.8961883279955</v>
+        <v>212.634256893896</v>
       </c>
       <c r="O18" t="n">
-        <v>190.1843965029557</v>
+        <v>194.5188035839251</v>
       </c>
       <c r="P18" t="n">
-        <v>152.6397451461958</v>
+        <v>156.1184889567521</v>
       </c>
       <c r="Q18" t="n">
-        <v>102.0356273309496</v>
+        <v>104.3610754420808</v>
       </c>
       <c r="R18" t="n">
-        <v>49.62947843928405</v>
+        <v>50.76056157085267</v>
       </c>
       <c r="S18" t="n">
-        <v>14.84747394676234</v>
+        <v>15.18585605061888</v>
       </c>
       <c r="T18" t="n">
-        <v>3.221919375932609</v>
+        <v>3.295348691976093</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05258845553752902</v>
+        <v>0.05378697538589927</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6701435973416262</v>
+        <v>0.6854165387973609</v>
       </c>
       <c r="H19" t="n">
-        <v>5.958185801819191</v>
+        <v>6.093976135852904</v>
       </c>
       <c r="I19" t="n">
-        <v>20.15304563641909</v>
+        <v>20.61234463946973</v>
       </c>
       <c r="J19" t="n">
-        <v>47.37915233205297</v>
+        <v>48.45894929297341</v>
       </c>
       <c r="K19" t="n">
-        <v>77.85850158205437</v>
+        <v>79.63293968936608</v>
       </c>
       <c r="L19" t="n">
-        <v>99.63207628113598</v>
+        <v>101.9027461408367</v>
       </c>
       <c r="M19" t="n">
-        <v>105.0480549905605</v>
+        <v>107.4421579862081</v>
       </c>
       <c r="N19" t="n">
-        <v>102.5502470368327</v>
+        <v>104.8874236143271</v>
       </c>
       <c r="O19" t="n">
-        <v>94.72175137697826</v>
+        <v>96.88051222928519</v>
       </c>
       <c r="P19" t="n">
-        <v>81.05082199120902</v>
+        <v>82.89801483781896</v>
       </c>
       <c r="Q19" t="n">
-        <v>56.11538795557927</v>
+        <v>57.39428853511356</v>
       </c>
       <c r="R19" t="n">
-        <v>30.13209302228802</v>
+        <v>30.81882000810678</v>
       </c>
       <c r="S19" t="n">
-        <v>11.67877523730816</v>
+        <v>11.94494095340491</v>
       </c>
       <c r="T19" t="n">
-        <v>2.86334082500513</v>
+        <v>2.928597938497814</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03655328712772511</v>
+        <v>0.03738635666167427</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.493970194164977</v>
+        <v>1.528018597227556</v>
       </c>
       <c r="H20" t="n">
-        <v>15.30012225099207</v>
+        <v>15.64882045885671</v>
       </c>
       <c r="I20" t="n">
-        <v>57.59628591054532</v>
+        <v>58.90893696961539</v>
       </c>
       <c r="J20" t="n">
-        <v>126.7988527670098</v>
+        <v>129.6886684164423</v>
       </c>
       <c r="K20" t="n">
-        <v>190.0386110860133</v>
+        <v>194.3696956370848</v>
       </c>
       <c r="L20" t="n">
-        <v>235.7597014156898</v>
+        <v>241.1327947819877</v>
       </c>
       <c r="M20" t="n">
-        <v>262.3280938561712</v>
+        <v>268.3066955104332</v>
       </c>
       <c r="N20" t="n">
-        <v>266.5728366703424</v>
+        <v>272.648178349806</v>
       </c>
       <c r="O20" t="n">
-        <v>251.7171705521144</v>
+        <v>257.4539434236245</v>
       </c>
       <c r="P20" t="n">
-        <v>214.8347813836665</v>
+        <v>219.7309843045692</v>
       </c>
       <c r="Q20" t="n">
-        <v>161.3319738051332</v>
+        <v>165.0088182913573</v>
       </c>
       <c r="R20" t="n">
-        <v>93.8456052092158</v>
+        <v>95.98439820809551</v>
       </c>
       <c r="S20" t="n">
-        <v>34.04384579953444</v>
+        <v>34.81972378432295</v>
       </c>
       <c r="T20" t="n">
-        <v>6.539854524957189</v>
+        <v>6.688901409363627</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1195176155331981</v>
+        <v>0.1222414877782044</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.7993445241704408</v>
+        <v>0.8175620258656686</v>
       </c>
       <c r="H21" t="n">
-        <v>7.719985272909258</v>
+        <v>7.895927986650011</v>
       </c>
       <c r="I21" t="n">
-        <v>27.52129173130685</v>
+        <v>28.14851711862061</v>
       </c>
       <c r="J21" t="n">
-        <v>75.52052804892749</v>
+        <v>77.2416824525104</v>
       </c>
       <c r="K21" t="n">
-        <v>129.076611168347</v>
+        <v>132.0183381855102</v>
       </c>
       <c r="L21" t="n">
-        <v>173.5594327590249</v>
+        <v>177.5149477652628</v>
       </c>
       <c r="M21" t="n">
-        <v>202.5356717602033</v>
+        <v>207.1515712028933</v>
       </c>
       <c r="N21" t="n">
-        <v>207.8961883279955</v>
+        <v>212.634256893896</v>
       </c>
       <c r="O21" t="n">
-        <v>190.1843965029557</v>
+        <v>194.5188035839251</v>
       </c>
       <c r="P21" t="n">
-        <v>152.6397451461958</v>
+        <v>156.1184889567521</v>
       </c>
       <c r="Q21" t="n">
-        <v>102.0356273309496</v>
+        <v>104.3610754420808</v>
       </c>
       <c r="R21" t="n">
-        <v>49.62947843928405</v>
+        <v>50.76056157085267</v>
       </c>
       <c r="S21" t="n">
-        <v>14.84747394676234</v>
+        <v>15.18585605061888</v>
       </c>
       <c r="T21" t="n">
-        <v>3.221919375932609</v>
+        <v>3.295348691976093</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05258845553752902</v>
+        <v>0.05378697538589927</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6701435973416262</v>
+        <v>0.6854165387973609</v>
       </c>
       <c r="H22" t="n">
-        <v>5.958185801819191</v>
+        <v>6.093976135852904</v>
       </c>
       <c r="I22" t="n">
-        <v>20.15304563641909</v>
+        <v>20.61234463946973</v>
       </c>
       <c r="J22" t="n">
-        <v>47.37915233205297</v>
+        <v>48.45894929297341</v>
       </c>
       <c r="K22" t="n">
-        <v>77.85850158205437</v>
+        <v>79.63293968936608</v>
       </c>
       <c r="L22" t="n">
-        <v>99.63207628113598</v>
+        <v>101.9027461408367</v>
       </c>
       <c r="M22" t="n">
-        <v>105.0480549905605</v>
+        <v>107.4421579862081</v>
       </c>
       <c r="N22" t="n">
-        <v>102.5502470368327</v>
+        <v>104.8874236143271</v>
       </c>
       <c r="O22" t="n">
-        <v>94.72175137697826</v>
+        <v>96.88051222928519</v>
       </c>
       <c r="P22" t="n">
-        <v>81.05082199120902</v>
+        <v>82.89801483781896</v>
       </c>
       <c r="Q22" t="n">
-        <v>56.11538795557927</v>
+        <v>57.39428853511356</v>
       </c>
       <c r="R22" t="n">
-        <v>30.13209302228802</v>
+        <v>30.81882000810678</v>
       </c>
       <c r="S22" t="n">
-        <v>11.67877523730816</v>
+        <v>11.94494095340491</v>
       </c>
       <c r="T22" t="n">
-        <v>2.86334082500513</v>
+        <v>2.928597938497814</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03655328712772511</v>
+        <v>0.03738635666167427</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34386,7 +34386,7 @@
         <v>373.615395867857</v>
       </c>
       <c r="P44" t="n">
-        <v>318.8720964755372</v>
+        <v>318.8720964755371</v>
       </c>
       <c r="Q44" t="n">
         <v>239.4596646988303</v>
@@ -34698,22 +34698,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>8.837188616231382</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.600756637734326</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>8.837188616231382</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>8.837188616231382</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>4.806680173979515</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -34743,7 +34743,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>3.072693678609198</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -34783,16 +34783,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>8.837188616231382</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>8.837188616231382</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>8.837188616231382</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>8.480130490323042</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -35020,13 +35020,13 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>16.73580094224766</v>
+        <v>6.330706408026359</v>
       </c>
       <c r="M6" t="n">
         <v>16.8201079258493</v>
       </c>
       <c r="N6" t="n">
-        <v>6.415013391627988</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="O6" t="n">
         <v>16.8201079258493</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>5.633336333898939</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>22.08482716139557</v>
+        <v>15.0961753055206</v>
       </c>
       <c r="M8" t="n">
-        <v>37.52930446208636</v>
+        <v>29.75308270337462</v>
       </c>
       <c r="N8" t="n">
-        <v>37.52930446208636</v>
+        <v>29.75308270337462</v>
       </c>
       <c r="O8" t="n">
-        <v>32.33822706896035</v>
+        <v>24.87654612615627</v>
       </c>
       <c r="P8" t="n">
-        <v>13.48588282609616</v>
+        <v>7.117510773502701</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35254,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>4.716772462710864</v>
       </c>
       <c r="L9" t="n">
-        <v>30.43725529618024</v>
+        <v>25.29241313455351</v>
       </c>
       <c r="M9" t="n">
-        <v>21.68359997728415</v>
+        <v>29.75308270337462</v>
       </c>
       <c r="N9" t="n">
-        <v>37.52930446208636</v>
+        <v>29.75308270337462</v>
       </c>
       <c r="O9" t="n">
-        <v>37.0909482541969</v>
+        <v>28.29483505379294</v>
       </c>
       <c r="P9" t="n">
-        <v>21.85977432477611</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>53.47526143370185</v>
+        <v>56.36507708313434</v>
       </c>
       <c r="K11" t="n">
-        <v>100.9022214127962</v>
+        <v>105.2333059638676</v>
       </c>
       <c r="L11" t="n">
-        <v>140.2743033528449</v>
+        <v>145.6473967191427</v>
       </c>
       <c r="M11" t="n">
-        <v>169.0378693991257</v>
+        <v>175.0164710533876</v>
       </c>
       <c r="N11" t="n">
-        <v>173.6605459137231</v>
+        <v>179.7358875931865</v>
       </c>
       <c r="O11" t="n">
-        <v>158.5273949263312</v>
+        <v>164.2641677978412</v>
       </c>
       <c r="P11" t="n">
-        <v>121.1854181027823</v>
+        <v>126.0816210236849</v>
       </c>
       <c r="Q11" t="n">
-        <v>71.29816940598116</v>
+        <v>74.97501389220514</v>
       </c>
       <c r="R11" t="n">
-        <v>6.533462394492275</v>
+        <v>8.672255393371941</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>24.15128924892746</v>
+        <v>25.87244365251033</v>
       </c>
       <c r="K12" t="n">
-        <v>73.2508283837316</v>
+        <v>76.19255540089472</v>
       </c>
       <c r="L12" t="n">
-        <v>117.4449089481758</v>
+        <v>121.4004239544137</v>
       </c>
       <c r="M12" t="n">
-        <v>144.9713880217859</v>
+        <v>149.5872874644757</v>
       </c>
       <c r="N12" t="n">
-        <v>154.7027949342454</v>
+        <v>159.4408635001459</v>
       </c>
       <c r="O12" t="n">
-        <v>132.4329175029557</v>
+        <v>136.767324583925</v>
       </c>
       <c r="P12" t="n">
-        <v>98.38011014339207</v>
+        <v>101.8588539539483</v>
       </c>
       <c r="Q12" t="n">
-        <v>45.34300882611088</v>
+        <v>47.66845693724201</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>25.60813202298755</v>
+        <v>27.38257013029921</v>
       </c>
       <c r="L13" t="n">
-        <v>45.00378238723446</v>
+        <v>47.27445224693518</v>
       </c>
       <c r="M13" t="n">
-        <v>48.78311249178049</v>
+        <v>51.177215487428</v>
       </c>
       <c r="N13" t="n">
-        <v>50.83760152841329</v>
+        <v>53.17477810590762</v>
       </c>
       <c r="O13" t="n">
-        <v>38.64685330398192</v>
+        <v>40.8056141562888</v>
       </c>
       <c r="P13" t="n">
-        <v>25.27098035130422</v>
+        <v>27.11817319791412</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>53.47526143370186</v>
+        <v>56.36507708313431</v>
       </c>
       <c r="K14" t="n">
-        <v>100.9022214127962</v>
+        <v>105.2333059638676</v>
       </c>
       <c r="L14" t="n">
-        <v>140.2743033528449</v>
+        <v>145.6473967191426</v>
       </c>
       <c r="M14" t="n">
-        <v>169.0378693991257</v>
+        <v>175.0164710533875</v>
       </c>
       <c r="N14" t="n">
-        <v>173.6605459137231</v>
+        <v>179.7358875931865</v>
       </c>
       <c r="O14" t="n">
-        <v>158.5273949263313</v>
+        <v>164.2641677978412</v>
       </c>
       <c r="P14" t="n">
-        <v>121.1854181027824</v>
+        <v>126.0816210236848</v>
       </c>
       <c r="Q14" t="n">
-        <v>71.29816940598118</v>
+        <v>74.97501389220511</v>
       </c>
       <c r="R14" t="n">
-        <v>6.53346239449229</v>
+        <v>8.672255393371927</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>24.15128924892748</v>
+        <v>25.87244365251032</v>
       </c>
       <c r="K15" t="n">
-        <v>73.2508283837316</v>
+        <v>76.19255540089469</v>
       </c>
       <c r="L15" t="n">
-        <v>117.4449089481758</v>
+        <v>121.4004239544137</v>
       </c>
       <c r="M15" t="n">
-        <v>144.9713880217859</v>
+        <v>149.5872874644757</v>
       </c>
       <c r="N15" t="n">
-        <v>154.7027949342455</v>
+        <v>159.4408635001458</v>
       </c>
       <c r="O15" t="n">
-        <v>132.4329175029557</v>
+        <v>136.767324583925</v>
       </c>
       <c r="P15" t="n">
-        <v>98.3801101433921</v>
+        <v>101.8588539539483</v>
       </c>
       <c r="Q15" t="n">
-        <v>45.34300882611089</v>
+        <v>47.668456937242</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>25.60813202298755</v>
+        <v>27.3825701302992</v>
       </c>
       <c r="L16" t="n">
-        <v>45.00378238723447</v>
+        <v>47.27445224693516</v>
       </c>
       <c r="M16" t="n">
-        <v>48.7831124917805</v>
+        <v>51.17721548742799</v>
       </c>
       <c r="N16" t="n">
-        <v>50.8376015284133</v>
+        <v>53.17477810590761</v>
       </c>
       <c r="O16" t="n">
-        <v>38.64685330398193</v>
+        <v>40.80561415628879</v>
       </c>
       <c r="P16" t="n">
-        <v>25.27098035130424</v>
+        <v>27.11817319791411</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>53.47526143370186</v>
+        <v>56.36507708313439</v>
       </c>
       <c r="K17" t="n">
-        <v>100.9022214127962</v>
+        <v>105.2333059638677</v>
       </c>
       <c r="L17" t="n">
-        <v>140.2743033528449</v>
+        <v>145.6473967191428</v>
       </c>
       <c r="M17" t="n">
-        <v>169.0378693991257</v>
+        <v>175.0164710533878</v>
       </c>
       <c r="N17" t="n">
-        <v>173.6605459137231</v>
+        <v>179.7358875931867</v>
       </c>
       <c r="O17" t="n">
-        <v>158.5273949263313</v>
+        <v>164.2641677978414</v>
       </c>
       <c r="P17" t="n">
-        <v>121.1854181027824</v>
+        <v>126.081621023685</v>
       </c>
       <c r="Q17" t="n">
-        <v>71.29816940598118</v>
+        <v>74.97501389220525</v>
       </c>
       <c r="R17" t="n">
-        <v>6.53346239449229</v>
+        <v>8.672255393371998</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>24.15128924892748</v>
+        <v>25.87244365251039</v>
       </c>
       <c r="K18" t="n">
-        <v>73.2508283837316</v>
+        <v>76.1925554008948</v>
       </c>
       <c r="L18" t="n">
-        <v>117.4449089481758</v>
+        <v>121.4004239544138</v>
       </c>
       <c r="M18" t="n">
-        <v>144.9713880217859</v>
+        <v>149.5872874644758</v>
       </c>
       <c r="N18" t="n">
-        <v>154.7027949342455</v>
+        <v>159.440863500146</v>
       </c>
       <c r="O18" t="n">
-        <v>132.4329175029557</v>
+        <v>136.7673245839251</v>
       </c>
       <c r="P18" t="n">
-        <v>98.3801101433921</v>
+        <v>101.8588539539484</v>
       </c>
       <c r="Q18" t="n">
-        <v>45.34300882611089</v>
+        <v>47.66845693724208</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>25.60813202298755</v>
+        <v>27.38257013029926</v>
       </c>
       <c r="L19" t="n">
-        <v>45.00378238723447</v>
+        <v>47.27445224693523</v>
       </c>
       <c r="M19" t="n">
-        <v>48.7831124917805</v>
+        <v>51.17721548742806</v>
       </c>
       <c r="N19" t="n">
-        <v>50.8376015284133</v>
+        <v>53.17477810590768</v>
       </c>
       <c r="O19" t="n">
-        <v>38.64685330398193</v>
+        <v>40.80561415628886</v>
       </c>
       <c r="P19" t="n">
-        <v>25.27098035130424</v>
+        <v>27.11817319791418</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>53.47526143370186</v>
+        <v>56.36507708313439</v>
       </c>
       <c r="K20" t="n">
-        <v>100.9022214127962</v>
+        <v>105.2333059638677</v>
       </c>
       <c r="L20" t="n">
-        <v>140.2743033528449</v>
+        <v>145.6473967191428</v>
       </c>
       <c r="M20" t="n">
-        <v>169.0378693991257</v>
+        <v>175.0164710533878</v>
       </c>
       <c r="N20" t="n">
-        <v>173.6605459137231</v>
+        <v>179.7358875931867</v>
       </c>
       <c r="O20" t="n">
-        <v>158.5273949263313</v>
+        <v>164.2641677978414</v>
       </c>
       <c r="P20" t="n">
-        <v>121.1854181027824</v>
+        <v>126.081621023685</v>
       </c>
       <c r="Q20" t="n">
-        <v>71.29816940598118</v>
+        <v>74.97501389220525</v>
       </c>
       <c r="R20" t="n">
-        <v>6.53346239449229</v>
+        <v>8.672255393371998</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>24.15128924892748</v>
+        <v>25.87244365251039</v>
       </c>
       <c r="K21" t="n">
-        <v>73.2508283837316</v>
+        <v>76.1925554008948</v>
       </c>
       <c r="L21" t="n">
-        <v>117.4449089481758</v>
+        <v>121.4004239544138</v>
       </c>
       <c r="M21" t="n">
-        <v>144.9713880217859</v>
+        <v>149.5872874644758</v>
       </c>
       <c r="N21" t="n">
-        <v>154.7027949342455</v>
+        <v>159.440863500146</v>
       </c>
       <c r="O21" t="n">
-        <v>132.4329175029557</v>
+        <v>136.7673245839251</v>
       </c>
       <c r="P21" t="n">
-        <v>98.3801101433921</v>
+        <v>101.8588539539484</v>
       </c>
       <c r="Q21" t="n">
-        <v>45.34300882611089</v>
+        <v>47.66845693724208</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>25.60813202298755</v>
+        <v>27.38257013029926</v>
       </c>
       <c r="L22" t="n">
-        <v>45.00378238723447</v>
+        <v>47.27445224693523</v>
       </c>
       <c r="M22" t="n">
-        <v>48.7831124917805</v>
+        <v>51.17721548742806</v>
       </c>
       <c r="N22" t="n">
-        <v>50.8376015284133</v>
+        <v>53.17477810590768</v>
       </c>
       <c r="O22" t="n">
-        <v>38.64685330398193</v>
+        <v>40.80561415628886</v>
       </c>
       <c r="P22" t="n">
-        <v>25.27098035130424</v>
+        <v>27.11817319791418</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
